--- a/data/active_soybean_contracts_for_march_2020.xlsx
+++ b/data/active_soybean_contracts_for_march_2020.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brady\Documents\r-projects\soybean-stocks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C2DF3-000C-45B0-9D22-AD5900B40C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ZS_H_2020 (1).CSV" sheetId="1" r:id="rId3"/>
+    <sheet name="ZS_H_2020.CSV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,75 +52,378 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E458"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -122,7 +434,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -133,14 +445,14 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -157,9 +469,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>43053.0</v>
+        <v>43053</v>
       </c>
       <c r="B5" s="2">
         <v>978.5</v>
@@ -174,43 +486,43 @@
         <v>978.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43054.0</v>
+        <v>43054</v>
       </c>
       <c r="B6" s="2">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="C6" s="2">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D6" s="2">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="E6" s="2">
-        <v>985.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43055.0</v>
+        <v>43055</v>
       </c>
       <c r="B7" s="2">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="C7" s="2">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="D7" s="2">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="E7" s="2">
-        <v>983.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>43056.0</v>
+        <v>43056</v>
       </c>
       <c r="B8" s="2">
         <v>996.5</v>
@@ -225,9 +537,9 @@
         <v>996.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>43059.0</v>
+        <v>43059</v>
       </c>
       <c r="B9" s="2">
         <v>998.5</v>
@@ -242,43 +554,43 @@
         <v>998.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>43060.0</v>
+        <v>43060</v>
       </c>
       <c r="B10" s="2">
-        <v>998.0</v>
+        <v>998</v>
       </c>
       <c r="C10" s="2">
-        <v>998.0</v>
+        <v>998</v>
       </c>
       <c r="D10" s="2">
-        <v>998.0</v>
+        <v>998</v>
       </c>
       <c r="E10" s="2">
-        <v>998.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>43061.0</v>
+        <v>43061</v>
       </c>
       <c r="B11" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="D11" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="E11" s="2">
-        <v>1003.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43063.0</v>
+        <v>43063</v>
       </c>
       <c r="B12" s="2">
         <v>1000.5</v>
@@ -293,9 +605,9 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43066.0</v>
+        <v>43066</v>
       </c>
       <c r="B13" s="2">
         <v>1001.75</v>
@@ -310,9 +622,9 @@
         <v>1001.75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43067.0</v>
+        <v>43067</v>
       </c>
       <c r="B14" s="2">
         <v>1001.75</v>
@@ -327,9 +639,9 @@
         <v>1001.75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>43068.0</v>
+        <v>43068</v>
       </c>
       <c r="B15" s="2">
         <v>1000.25</v>
@@ -344,9 +656,9 @@
         <v>1000.25</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43069.0</v>
+        <v>43069</v>
       </c>
       <c r="B16" s="2">
         <v>997.75</v>
@@ -361,9 +673,9 @@
         <v>997.75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43070.0</v>
+        <v>43070</v>
       </c>
       <c r="B17" s="2">
         <v>1004.5</v>
@@ -378,9 +690,9 @@
         <v>1004.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43073.0</v>
+        <v>43073</v>
       </c>
       <c r="B18" s="2">
         <v>1004.75</v>
@@ -395,26 +707,26 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43074.0</v>
+        <v>43074</v>
       </c>
       <c r="B19" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="C19" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="D19" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="E19" s="2">
-        <v>1010.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43075.0</v>
+        <v>43075</v>
       </c>
       <c r="B20" s="2">
         <v>1006.25</v>
@@ -429,9 +741,9 @@
         <v>1006.25</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43076.0</v>
+        <v>43076</v>
       </c>
       <c r="B21" s="2">
         <v>997.25</v>
@@ -446,43 +758,43 @@
         <v>997.25</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43077.0</v>
+        <v>43077</v>
       </c>
       <c r="B22" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="C22" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="D22" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E22" s="2">
-        <v>996.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>43080.0</v>
+        <v>43080</v>
       </c>
       <c r="B23" s="2">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="C23" s="2">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="D23" s="2">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="E23" s="2">
-        <v>992.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43081.0</v>
+        <v>43081</v>
       </c>
       <c r="B24" s="2">
         <v>987.5</v>
@@ -497,9 +809,9 @@
         <v>987.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43082.0</v>
+        <v>43082</v>
       </c>
       <c r="B25" s="2">
         <v>990.5</v>
@@ -514,26 +826,26 @@
         <v>990.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43083.0</v>
+        <v>43083</v>
       </c>
       <c r="B26" s="2">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="C26" s="2">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="D26" s="2">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="E26" s="2">
-        <v>984.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43084.0</v>
+        <v>43084</v>
       </c>
       <c r="B27" s="2">
         <v>984.25</v>
@@ -548,9 +860,9 @@
         <v>984.25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43087.0</v>
+        <v>43087</v>
       </c>
       <c r="B28" s="2">
         <v>980.25</v>
@@ -565,9 +877,9 @@
         <v>980.25</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43088.0</v>
+        <v>43088</v>
       </c>
       <c r="B29" s="2">
         <v>976.5</v>
@@ -582,26 +894,26 @@
         <v>976.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43089.0</v>
+        <v>43089</v>
       </c>
       <c r="B30" s="2">
-        <v>976.0</v>
+        <v>976</v>
       </c>
       <c r="C30" s="2">
-        <v>976.0</v>
+        <v>976</v>
       </c>
       <c r="D30" s="2">
-        <v>976.0</v>
+        <v>976</v>
       </c>
       <c r="E30" s="2">
-        <v>976.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43090.0</v>
+        <v>43090</v>
       </c>
       <c r="B31" s="2">
         <v>976.25</v>
@@ -616,9 +928,9 @@
         <v>976.25</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43091.0</v>
+        <v>43091</v>
       </c>
       <c r="B32" s="2">
         <v>976.75</v>
@@ -633,9 +945,9 @@
         <v>976.75</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43095.0</v>
+        <v>43095</v>
       </c>
       <c r="B33" s="2">
         <v>984.75</v>
@@ -650,9 +962,9 @@
         <v>984.75</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43096.0</v>
+        <v>43096</v>
       </c>
       <c r="B34" s="2">
         <v>984.25</v>
@@ -667,9 +979,9 @@
         <v>984.25</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43097.0</v>
+        <v>43097</v>
       </c>
       <c r="B35" s="2">
         <v>979.5</v>
@@ -684,9 +996,9 @@
         <v>979.5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43098.0</v>
+        <v>43098</v>
       </c>
       <c r="B36" s="2">
         <v>981.25</v>
@@ -701,9 +1013,9 @@
         <v>981.25</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43102.0</v>
+        <v>43102</v>
       </c>
       <c r="B37" s="2">
         <v>986.25</v>
@@ -718,26 +1030,26 @@
         <v>986.25</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43103.0</v>
+        <v>43103</v>
       </c>
       <c r="B38" s="2">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="C38" s="2">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="D38" s="2">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="E38" s="2">
-        <v>987.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43104.0</v>
+        <v>43104</v>
       </c>
       <c r="B39" s="2">
         <v>986.25</v>
@@ -752,26 +1064,26 @@
         <v>986.25</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43105.0</v>
+        <v>43105</v>
       </c>
       <c r="B40" s="2">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="C40" s="2">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="D40" s="2">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="E40" s="2">
-        <v>988.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43108.0</v>
+        <v>43108</v>
       </c>
       <c r="B41" s="2">
         <v>986.75</v>
@@ -786,9 +1098,9 @@
         <v>986.75</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43109.0</v>
+        <v>43109</v>
       </c>
       <c r="B42" s="2">
         <v>985.75</v>
@@ -803,9 +1115,9 @@
         <v>985.75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43110.0</v>
+        <v>43110</v>
       </c>
       <c r="B43" s="2">
         <v>978.75</v>
@@ -820,43 +1132,43 @@
         <v>978.75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43111.0</v>
+        <v>43111</v>
       </c>
       <c r="B44" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="C44" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D44" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="E44" s="2">
-        <v>977.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43112.0</v>
+        <v>43112</v>
       </c>
       <c r="B45" s="2">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="C45" s="2">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="D45" s="2">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="E45" s="2">
-        <v>989.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43116.0</v>
+        <v>43116</v>
       </c>
       <c r="B46" s="2">
         <v>991.75</v>
@@ -871,9 +1183,9 @@
         <v>991.75</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43117.0</v>
+        <v>43117</v>
       </c>
       <c r="B47" s="2">
         <v>991.75</v>
@@ -888,9 +1200,9 @@
         <v>991.75</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43118.0</v>
+        <v>43118</v>
       </c>
       <c r="B48" s="2">
         <v>995.75</v>
@@ -905,43 +1217,43 @@
         <v>995.75</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43119.0</v>
+        <v>43119</v>
       </c>
       <c r="B49" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="C49" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="D49" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E49" s="2">
-        <v>996.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43122.0</v>
+        <v>43122</v>
       </c>
       <c r="B50" s="2">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="C50" s="2">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="D50" s="2">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="E50" s="2">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43123.0</v>
+        <v>43123</v>
       </c>
       <c r="B51" s="2">
         <v>1001.25</v>
@@ -956,9 +1268,9 @@
         <v>1001.25</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43124.0</v>
+        <v>43124</v>
       </c>
       <c r="B52" s="2">
         <v>1003.75</v>
@@ -973,9 +1285,9 @@
         <v>1003.75</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43125.0</v>
+        <v>43125</v>
       </c>
       <c r="B53" s="2">
         <v>1004.75</v>
@@ -990,9 +1302,9 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43126.0</v>
+        <v>43126</v>
       </c>
       <c r="B54" s="2">
         <v>1001.5</v>
@@ -1007,43 +1319,43 @@
         <v>1001.5</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43129.0</v>
+        <v>43129</v>
       </c>
       <c r="B55" s="2">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C55" s="2">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="D55" s="2">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="E55" s="2">
-        <v>1004.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43130.0</v>
+        <v>43130</v>
       </c>
       <c r="B56" s="2">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="C56" s="2">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="D56" s="2">
-        <v>1007.0</v>
+        <v>1007</v>
       </c>
       <c r="E56" s="2">
-        <v>1007.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43131.0</v>
+        <v>43131</v>
       </c>
       <c r="B57" s="2">
         <v>1004.25</v>
@@ -1058,9 +1370,9 @@
         <v>1004.25</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43132.0</v>
+        <v>43132</v>
       </c>
       <c r="B58" s="2">
         <v>999.75</v>
@@ -1075,43 +1387,43 @@
         <v>999.75</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43133.0</v>
+        <v>43133</v>
       </c>
       <c r="B59" s="2">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="C59" s="2">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="D59" s="2">
-        <v>994.0</v>
+        <v>994</v>
       </c>
       <c r="E59" s="2">
-        <v>994.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43136.0</v>
+        <v>43136</v>
       </c>
       <c r="B60" s="2">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="C60" s="2">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="D60" s="2">
-        <v>989.0</v>
+        <v>989</v>
       </c>
       <c r="E60" s="2">
-        <v>989.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43137.0</v>
+        <v>43137</v>
       </c>
       <c r="B61" s="2">
         <v>1000.75</v>
@@ -1126,9 +1438,9 @@
         <v>1000.75</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="B62" s="2">
         <v>996.75</v>
@@ -1143,9 +1455,9 @@
         <v>996.75</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43139.0</v>
+        <v>43139</v>
       </c>
       <c r="B63" s="2">
         <v>1000.25</v>
@@ -1160,26 +1472,26 @@
         <v>1000.25</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43140.0</v>
+        <v>43140</v>
       </c>
       <c r="B64" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="C64" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="D64" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E64" s="2">
-        <v>996.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43143.0</v>
+        <v>43143</v>
       </c>
       <c r="B65" s="2">
         <v>1002.75</v>
@@ -1194,9 +1506,9 @@
         <v>1002.75</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43144.0</v>
+        <v>43144</v>
       </c>
       <c r="B66" s="2">
         <v>1002.75</v>
@@ -1211,9 +1523,9 @@
         <v>1002.75</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43145.0</v>
+        <v>43145</v>
       </c>
       <c r="B67" s="2">
         <v>999.25</v>
@@ -1228,9 +1540,9 @@
         <v>999.25</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43146.0</v>
+        <v>43146</v>
       </c>
       <c r="B68" s="2">
         <v>1003.75</v>
@@ -1245,26 +1557,26 @@
         <v>1003.75</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43147.0</v>
+        <v>43147</v>
       </c>
       <c r="B69" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C69" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="D69" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="E69" s="2">
-        <v>1003.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43151.0</v>
+        <v>43151</v>
       </c>
       <c r="B70" s="2">
         <v>1005.25</v>
@@ -1279,9 +1591,9 @@
         <v>1005.25</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43152.0</v>
+        <v>43152</v>
       </c>
       <c r="B71" s="2">
         <v>1005.75</v>
@@ -1296,9 +1608,9 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43153.0</v>
+        <v>43153</v>
       </c>
       <c r="B72" s="2">
         <v>1004.75</v>
@@ -1313,9 +1625,9 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43154.0</v>
+        <v>43154</v>
       </c>
       <c r="B73" s="2">
         <v>1007.25</v>
@@ -1330,9 +1642,9 @@
         <v>1007.25</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43157.0</v>
+        <v>43157</v>
       </c>
       <c r="B74" s="2">
         <v>1005.75</v>
@@ -1347,9 +1659,9 @@
         <v>1007.75</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43158.0</v>
+        <v>43158</v>
       </c>
       <c r="B75" s="2">
         <v>1006.25</v>
@@ -1364,9 +1676,9 @@
         <v>1006.25</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43159.0</v>
+        <v>43159</v>
       </c>
       <c r="B76" s="2">
         <v>1005.5</v>
@@ -1381,9 +1693,9 @@
         <v>1005.5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43160.0</v>
+        <v>43160</v>
       </c>
       <c r="B77" s="2">
         <v>1005.75</v>
@@ -1398,9 +1710,9 @@
         <v>1005.75</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43161.0</v>
+        <v>43161</v>
       </c>
       <c r="B78" s="2">
         <v>1000.75</v>
@@ -1415,9 +1727,9 @@
         <v>1000.75</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43164.0</v>
+        <v>43164</v>
       </c>
       <c r="B79" s="2">
         <v>1004.75</v>
@@ -1432,9 +1744,9 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43165.0</v>
+        <v>43165</v>
       </c>
       <c r="B80" s="2">
         <v>1012.25</v>
@@ -1449,9 +1761,9 @@
         <v>1012.25</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43166.0</v>
+        <v>43166</v>
       </c>
       <c r="B81" s="2">
         <v>1012.5</v>
@@ -1466,12 +1778,12 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43167.0</v>
+        <v>43167</v>
       </c>
       <c r="B82" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="C82" s="2">
         <v>1012.5</v>
@@ -1483,9 +1795,9 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43168.0</v>
+        <v>43168</v>
       </c>
       <c r="B83" s="2">
         <v>1001.75</v>
@@ -1500,26 +1812,26 @@
         <v>1001.75</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="B84" s="2">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="C84" s="2">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="D84" s="2">
-        <v>1009.0</v>
+        <v>1009</v>
       </c>
       <c r="E84" s="2">
-        <v>1009.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43172.0</v>
+        <v>43172</v>
       </c>
       <c r="B85" s="2">
         <v>1014.25</v>
@@ -1534,26 +1846,26 @@
         <v>1014.25</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43173.0</v>
+        <v>43173</v>
       </c>
       <c r="B86" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C86" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="D86" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="E86" s="2">
-        <v>1003.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43174.0</v>
+        <v>43174</v>
       </c>
       <c r="B87" s="2">
         <v>1004.75</v>
@@ -1568,26 +1880,26 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43175.0</v>
+        <v>43175</v>
       </c>
       <c r="B88" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="C88" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="D88" s="2">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="E88" s="2">
-        <v>1010.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43178.0</v>
+        <v>43178</v>
       </c>
       <c r="B89" s="2">
         <v>1002.25</v>
@@ -1602,43 +1914,43 @@
         <v>1002.25</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43179.0</v>
+        <v>43179</v>
       </c>
       <c r="B90" s="2">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C90" s="2">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="D90" s="2">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="E90" s="2">
-        <v>1004.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43180.0</v>
+        <v>43180</v>
       </c>
       <c r="B91" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C91" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="D91" s="2">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="E91" s="2">
-        <v>1003.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43181.0</v>
+        <v>43181</v>
       </c>
       <c r="B92" s="2">
         <v>1002.75</v>
@@ -1653,9 +1965,9 @@
         <v>1002.75</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43182.0</v>
+        <v>43182</v>
       </c>
       <c r="B93" s="2">
         <v>1001.75</v>
@@ -1670,9 +1982,9 @@
         <v>1001.75</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="B94" s="2">
         <v>1001.25</v>
@@ -1687,9 +1999,9 @@
         <v>1001.25</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43186.0</v>
+        <v>43186</v>
       </c>
       <c r="B95" s="2">
         <v>996.75</v>
@@ -1704,9 +2016,9 @@
         <v>996.75</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="B96" s="2">
         <v>993.25</v>
@@ -1721,9 +2033,9 @@
         <v>993.25</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43188.0</v>
+        <v>43188</v>
       </c>
       <c r="B97" s="2">
         <v>1009.5</v>
@@ -1738,9 +2050,9 @@
         <v>1009.5</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43192.0</v>
+        <v>43192</v>
       </c>
       <c r="B98" s="2">
         <v>1000.75</v>
@@ -1755,9 +2067,9 @@
         <v>1000.75</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43193.0</v>
+        <v>43193</v>
       </c>
       <c r="B99" s="2">
         <v>1000.75</v>
@@ -1772,9 +2084,9 @@
         <v>1000.75</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43194.0</v>
+        <v>43194</v>
       </c>
       <c r="B100" s="2">
         <v>988.5</v>
@@ -1789,26 +2101,26 @@
         <v>988.5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43195.0</v>
+        <v>43195</v>
       </c>
       <c r="B101" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="C101" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="D101" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E101" s="2">
-        <v>996.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43196.0</v>
+        <v>43196</v>
       </c>
       <c r="B102" s="2">
         <v>995.5</v>
@@ -1823,9 +2135,9 @@
         <v>995.5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43199.0</v>
+        <v>43199</v>
       </c>
       <c r="B103" s="2">
         <v>998.25</v>
@@ -1840,9 +2152,9 @@
         <v>998.25</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43200.0</v>
+        <v>43200</v>
       </c>
       <c r="B104" s="2">
         <v>1003.75</v>
@@ -1857,9 +2169,9 @@
         <v>1003.75</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43201.0</v>
+        <v>43201</v>
       </c>
       <c r="B105" s="2">
         <v>1002.5</v>
@@ -1874,26 +2186,26 @@
         <v>1002.5</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43202.0</v>
+        <v>43202</v>
       </c>
       <c r="B106" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C106" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D106" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E106" s="2">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43203.0</v>
+        <v>43203</v>
       </c>
       <c r="B107" s="2">
         <v>997.5</v>
@@ -1908,9 +2220,9 @@
         <v>997.5</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43206.0</v>
+        <v>43206</v>
       </c>
       <c r="B108" s="2">
         <v>992.5</v>
@@ -1925,9 +2237,9 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43207.0</v>
+        <v>43207</v>
       </c>
       <c r="B109" s="2">
         <v>994.75</v>
@@ -1942,9 +2254,9 @@
         <v>994.75</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43208.0</v>
+        <v>43208</v>
       </c>
       <c r="B110" s="2">
         <v>999.5</v>
@@ -1959,9 +2271,9 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43209.0</v>
+        <v>43209</v>
       </c>
       <c r="B111" s="2">
         <v>1000.75</v>
@@ -1976,9 +2288,9 @@
         <v>1000.75</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43210.0</v>
+        <v>43210</v>
       </c>
       <c r="B112" s="2">
         <v>995.25</v>
@@ -1993,9 +2305,9 @@
         <v>995.25</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43213.0</v>
+        <v>43213</v>
       </c>
       <c r="B113" s="2">
         <v>993.75</v>
@@ -2010,60 +2322,60 @@
         <v>993.75</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43214.0</v>
+        <v>43214</v>
       </c>
       <c r="B114" s="2">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="C114" s="2">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="D114" s="2">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="E114" s="2">
-        <v>990.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43215.0</v>
+        <v>43215</v>
       </c>
       <c r="B115" s="2">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="C115" s="2">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="D115" s="2">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="E115" s="2">
-        <v>992.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43216.0</v>
+        <v>43216</v>
       </c>
       <c r="B116" s="2">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="C116" s="2">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="D116" s="2">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="E116" s="2">
-        <v>991.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43217.0</v>
+        <v>43217</v>
       </c>
       <c r="B117" s="2">
         <v>999.5</v>
@@ -2078,9 +2390,9 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43220.0</v>
+        <v>43220</v>
       </c>
       <c r="B118" s="2">
         <v>999.5</v>
@@ -2095,9 +2407,9 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43221.0</v>
+        <v>43221</v>
       </c>
       <c r="B119" s="2">
         <v>1006.25</v>
@@ -2112,9 +2424,9 @@
         <v>1006.25</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43222.0</v>
+        <v>43222</v>
       </c>
       <c r="B120" s="2">
         <v>997.75</v>
@@ -2129,9 +2441,9 @@
         <v>997.75</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43223.0</v>
+        <v>43223</v>
       </c>
       <c r="B121" s="2">
         <v>998.25</v>
@@ -2146,43 +2458,43 @@
         <v>998.25</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43224.0</v>
+        <v>43224</v>
       </c>
       <c r="B122" s="2">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="C122" s="2">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D122" s="2">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="E122" s="2">
-        <v>995.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43227.0</v>
+        <v>43227</v>
       </c>
       <c r="B123" s="2">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="C123" s="2">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="D123" s="2">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="E123" s="2">
-        <v>983.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43228.0</v>
+        <v>43228</v>
       </c>
       <c r="B124" s="2">
         <v>985.25</v>
@@ -2197,9 +2509,9 @@
         <v>985.25</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43229.0</v>
+        <v>43229</v>
       </c>
       <c r="B125" s="2">
         <v>983.25</v>
@@ -2214,9 +2526,9 @@
         <v>981.75</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43230.0</v>
+        <v>43230</v>
       </c>
       <c r="B126" s="2">
         <v>986.75</v>
@@ -2231,26 +2543,26 @@
         <v>986.75</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43231.0</v>
+        <v>43231</v>
       </c>
       <c r="B127" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="C127" s="2">
         <v>983.75</v>
       </c>
       <c r="D127" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="E127" s="2">
         <v>983.75</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43234.0</v>
+        <v>43234</v>
       </c>
       <c r="B128" s="2">
         <v>984.25</v>
@@ -2265,9 +2577,9 @@
         <v>984.25</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43235.0</v>
+        <v>43235</v>
       </c>
       <c r="B129" s="2">
         <v>984.5</v>
@@ -2282,9 +2594,9 @@
         <v>984.5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43236.0</v>
+        <v>43236</v>
       </c>
       <c r="B130" s="2">
         <v>982.75</v>
@@ -2299,15 +2611,15 @@
         <v>982.75</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43237.0</v>
+        <v>43237</v>
       </c>
       <c r="B131" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="C131" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="D131" s="2">
         <v>980.75</v>
@@ -2316,43 +2628,43 @@
         <v>980.75</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43238.0</v>
+        <v>43238</v>
       </c>
       <c r="B132" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="C132" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D132" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="E132" s="2">
-        <v>977.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43241.0</v>
+        <v>43241</v>
       </c>
       <c r="B133" s="2">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="C133" s="2">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="D133" s="2">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="E133" s="2">
-        <v>995.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43242.0</v>
+        <v>43242</v>
       </c>
       <c r="B134" s="2">
         <v>997.75</v>
@@ -2367,26 +2679,26 @@
         <v>997.75</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43243.0</v>
+        <v>43243</v>
       </c>
       <c r="B135" s="2">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="C135" s="2">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="D135" s="2">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="E135" s="2">
-        <v>1005.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43244.0</v>
+        <v>43244</v>
       </c>
       <c r="B136" s="2">
         <v>1001.75</v>
@@ -2401,9 +2713,9 @@
         <v>1001.75</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43245.0</v>
+        <v>43245</v>
       </c>
       <c r="B137" s="2">
         <v>1004.75</v>
@@ -2418,43 +2730,43 @@
         <v>1004.75</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>43249.0</v>
+        <v>43249</v>
       </c>
       <c r="B138" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="C138" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="D138" s="2">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="E138" s="2">
-        <v>996.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>43250.0</v>
+        <v>43250</v>
       </c>
       <c r="B139" s="2">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="C139" s="2">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="D139" s="2">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="E139" s="2">
-        <v>997.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>43251.0</v>
+        <v>43251</v>
       </c>
       <c r="B140" s="2">
         <v>999.25</v>
@@ -2469,9 +2781,9 @@
         <v>999.25</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>43252.0</v>
+        <v>43252</v>
       </c>
       <c r="B141" s="2">
         <v>1003.5</v>
@@ -2486,43 +2798,43 @@
         <v>1003.5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>43255.0</v>
+        <v>43255</v>
       </c>
       <c r="B142" s="2">
-        <v>993.0</v>
+        <v>993</v>
       </c>
       <c r="C142" s="2">
-        <v>993.0</v>
+        <v>993</v>
       </c>
       <c r="D142" s="2">
-        <v>993.0</v>
+        <v>993</v>
       </c>
       <c r="E142" s="2">
-        <v>993.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>43256.0</v>
+        <v>43256</v>
       </c>
       <c r="B143" s="2">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="C143" s="2">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="D143" s="2">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="E143" s="2">
-        <v>997.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>43257.0</v>
+        <v>43257</v>
       </c>
       <c r="B144" s="2">
         <v>995.25</v>
@@ -2537,9 +2849,9 @@
         <v>995.25</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>43258.0</v>
+        <v>43258</v>
       </c>
       <c r="B145" s="2">
         <v>989.25</v>
@@ -2554,32 +2866,32 @@
         <v>989.25</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>43259.0</v>
+        <v>43259</v>
       </c>
       <c r="B146" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="C146" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="D146" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="E146" s="2">
-        <v>982.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>43262.0</v>
+        <v>43262</v>
       </c>
       <c r="B147" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="C147" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D147" s="2">
         <v>973.25</v>
@@ -2588,9 +2900,9 @@
         <v>973.25</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>43263.0</v>
+        <v>43263</v>
       </c>
       <c r="B148" s="2">
         <v>975.75</v>
@@ -2605,15 +2917,15 @@
         <v>975.75</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>43264.0</v>
+        <v>43264</v>
       </c>
       <c r="B149" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="C149" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D149" s="2">
         <v>964.5</v>
@@ -2622,9 +2934,9 @@
         <v>964.5</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>43265.0</v>
+        <v>43265</v>
       </c>
       <c r="B150" s="2">
         <v>955.25</v>
@@ -2639,26 +2951,26 @@
         <v>955.25</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>43266.0</v>
+        <v>43266</v>
       </c>
       <c r="B151" s="2">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="C151" s="2">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="D151" s="2">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="E151" s="2">
-        <v>945.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>43269.0</v>
+        <v>43269</v>
       </c>
       <c r="B152" s="2">
         <v>943.75</v>
@@ -2673,9 +2985,9 @@
         <v>943.75</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>43270.0</v>
+        <v>43270</v>
       </c>
       <c r="B153" s="2">
         <v>932.25</v>
@@ -2690,9 +3002,9 @@
         <v>932.25</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>43271.0</v>
+        <v>43271</v>
       </c>
       <c r="B154" s="2">
         <v>935.25</v>
@@ -2707,9 +3019,9 @@
         <v>935.25</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>43272.0</v>
+        <v>43272</v>
       </c>
       <c r="B155" s="2">
         <v>926.75</v>
@@ -2724,9 +3036,9 @@
         <v>926.75</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>43273.0</v>
+        <v>43273</v>
       </c>
       <c r="B156" s="2">
         <v>934.75</v>
@@ -2741,9 +3053,9 @@
         <v>934.75</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>43276.0</v>
+        <v>43276</v>
       </c>
       <c r="B157" s="2">
         <v>917.5</v>
@@ -2758,9 +3070,9 @@
         <v>917.5</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>43277.0</v>
+        <v>43277</v>
       </c>
       <c r="B158" s="2">
         <v>913.5</v>
@@ -2775,9 +3087,9 @@
         <v>913.5</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>43278.0</v>
+        <v>43278</v>
       </c>
       <c r="B159" s="2">
         <v>915.25</v>
@@ -2792,9 +3104,9 @@
         <v>915.25</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>43279.0</v>
+        <v>43279</v>
       </c>
       <c r="B160" s="2">
         <v>911.75</v>
@@ -2809,26 +3121,26 @@
         <v>911.75</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>43280.0</v>
+        <v>43280</v>
       </c>
       <c r="B161" s="2">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="C161" s="2">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D161" s="2">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="E161" s="2">
-        <v>909.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>43283.0</v>
+        <v>43283</v>
       </c>
       <c r="B162" s="2">
         <v>904.75</v>
@@ -2843,15 +3155,15 @@
         <v>904.75</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>43284.0</v>
+        <v>43284</v>
       </c>
       <c r="B163" s="2">
         <v>901.75</v>
       </c>
       <c r="C163" s="2">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="D163" s="2">
         <v>901.75</v>
@@ -2860,46 +3172,46 @@
         <v>901.75</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>43286.0</v>
+        <v>43286</v>
       </c>
       <c r="B164" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="C164" s="2">
         <v>902.5</v>
       </c>
       <c r="D164" s="2">
-        <v>895.0</v>
+        <v>895</v>
       </c>
       <c r="E164" s="2">
-        <v>895.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>43287.0</v>
+        <v>43287</v>
       </c>
       <c r="B165" s="2">
-        <v>924.0</v>
+        <v>924</v>
       </c>
       <c r="C165" s="2">
         <v>925.25</v>
       </c>
       <c r="D165" s="2">
-        <v>924.0</v>
+        <v>924</v>
       </c>
       <c r="E165" s="2">
-        <v>924.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>43290.0</v>
+        <v>43290</v>
       </c>
       <c r="B166" s="2">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="C166" s="2">
         <v>908.5</v>
@@ -2911,12 +3223,12 @@
         <v>908.5</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>43291.0</v>
+        <v>43291</v>
       </c>
       <c r="B167" s="2">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="C167" s="2">
         <v>915.25</v>
@@ -2928,9 +3240,9 @@
         <v>912.5</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>43292.0</v>
+        <v>43292</v>
       </c>
       <c r="B168" s="2">
         <v>904.25</v>
@@ -2942,63 +3254,63 @@
         <v>894.75</v>
       </c>
       <c r="E168" s="2">
-        <v>895.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>43293.0</v>
+        <v>43293</v>
       </c>
       <c r="B169" s="2">
-        <v>896.0</v>
+        <v>896</v>
       </c>
       <c r="C169" s="2">
         <v>899.5</v>
       </c>
       <c r="D169" s="2">
-        <v>891.0</v>
+        <v>891</v>
       </c>
       <c r="E169" s="2">
-        <v>896.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>43294.0</v>
+        <v>43294</v>
       </c>
       <c r="B170" s="2">
-        <v>887.0</v>
+        <v>887</v>
       </c>
       <c r="C170" s="2">
-        <v>887.0</v>
+        <v>887</v>
       </c>
       <c r="D170" s="2">
-        <v>882.0</v>
+        <v>882</v>
       </c>
       <c r="E170" s="2">
-        <v>887.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>43297.0</v>
+        <v>43297</v>
       </c>
       <c r="B171" s="2">
         <v>902.25</v>
       </c>
       <c r="C171" s="2">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="D171" s="2">
         <v>884.5</v>
       </c>
       <c r="E171" s="2">
-        <v>896.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>43298.0</v>
+        <v>43298</v>
       </c>
       <c r="B172" s="2">
         <v>900.25</v>
@@ -3013,12 +3325,12 @@
         <v>900.25</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>43299.0</v>
+        <v>43299</v>
       </c>
       <c r="B173" s="2">
-        <v>902.0</v>
+        <v>902</v>
       </c>
       <c r="C173" s="2">
         <v>904.5</v>
@@ -3027,12 +3339,12 @@
         <v>898.75</v>
       </c>
       <c r="E173" s="2">
-        <v>902.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>43300.0</v>
+        <v>43300</v>
       </c>
       <c r="B174" s="2">
         <v>907.5</v>
@@ -3047,26 +3359,26 @@
         <v>907.5</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>43301.0</v>
+        <v>43301</v>
       </c>
       <c r="B175" s="2">
         <v>909.5</v>
       </c>
       <c r="C175" s="2">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="D175" s="2">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="E175" s="2">
         <v>909.5</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>43304.0</v>
+        <v>43304</v>
       </c>
       <c r="B176" s="2">
         <v>909.25</v>
@@ -3081,9 +3393,9 @@
         <v>909.25</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>43305.0</v>
+        <v>43305</v>
       </c>
       <c r="B177" s="2">
         <v>912.5</v>
@@ -3095,12 +3407,12 @@
         <v>905.5</v>
       </c>
       <c r="E177" s="2">
-        <v>918.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>43306.0</v>
+        <v>43306</v>
       </c>
       <c r="B178" s="2">
         <v>920.5</v>
@@ -3115,9 +3427,9 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>43307.0</v>
+        <v>43307</v>
       </c>
       <c r="B179" s="2">
         <v>931.5</v>
@@ -3132,9 +3444,9 @@
         <v>919.5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>43308.0</v>
+        <v>43308</v>
       </c>
       <c r="B180" s="2">
         <v>924.75</v>
@@ -3146,63 +3458,63 @@
         <v>921.75</v>
       </c>
       <c r="E180" s="2">
-        <v>927.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>43311.0</v>
+        <v>43311</v>
       </c>
       <c r="B181" s="2">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="C181" s="2">
         <v>935.75</v>
       </c>
       <c r="D181" s="2">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="E181" s="2">
-        <v>932.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>43312.0</v>
+        <v>43312</v>
       </c>
       <c r="B182" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="C182" s="2">
         <v>955.5</v>
       </c>
       <c r="D182" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="E182" s="2">
         <v>953.25</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>43313.0</v>
+        <v>43313</v>
       </c>
       <c r="B183" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="C183" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="D183" s="2">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="E183" s="2">
-        <v>943.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>43314.0</v>
+        <v>43314</v>
       </c>
       <c r="B184" s="2">
         <v>941.75</v>
@@ -3217,9 +3529,9 @@
         <v>941.75</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>43315.0</v>
+        <v>43315</v>
       </c>
       <c r="B185" s="2">
         <v>931.5</v>
@@ -3234,26 +3546,26 @@
         <v>945.5</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>43318.0</v>
+        <v>43318</v>
       </c>
       <c r="B186" s="2">
         <v>934.5</v>
       </c>
       <c r="C186" s="2">
-        <v>939.0</v>
+        <v>939</v>
       </c>
       <c r="D186" s="2">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="E186" s="2">
         <v>938.5</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>43319.0</v>
+        <v>43319</v>
       </c>
       <c r="B187" s="2">
         <v>945.25</v>
@@ -3265,46 +3577,46 @@
         <v>943.5</v>
       </c>
       <c r="E187" s="2">
-        <v>949.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>43320.0</v>
+        <v>43320</v>
       </c>
       <c r="B188" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="C188" s="2">
         <v>956.75</v>
       </c>
       <c r="D188" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="E188" s="2">
         <v>955.75</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>43321.0</v>
+        <v>43321</v>
       </c>
       <c r="B189" s="2">
         <v>950.75</v>
       </c>
       <c r="C189" s="2">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="D189" s="2">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="E189" s="2">
         <v>949.25</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>43322.0</v>
+        <v>43322</v>
       </c>
       <c r="B190" s="2">
         <v>946.25</v>
@@ -3316,12 +3628,12 @@
         <v>917.5</v>
       </c>
       <c r="E190" s="2">
-        <v>919.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>43325.0</v>
+        <v>43325</v>
       </c>
       <c r="B191" s="2">
         <v>921.75</v>
@@ -3336,9 +3648,9 @@
         <v>921.75</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>43326.0</v>
+        <v>43326</v>
       </c>
       <c r="B192" s="2">
         <v>928.75</v>
@@ -3353,15 +3665,15 @@
         <v>928.75</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>43327.0</v>
+        <v>43327</v>
       </c>
       <c r="B193" s="2">
         <v>925.25</v>
       </c>
       <c r="C193" s="2">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="D193" s="2">
         <v>923.25</v>
@@ -3370,15 +3682,15 @@
         <v>925.25</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>43328.0</v>
+        <v>43328</v>
       </c>
       <c r="B194" s="2">
         <v>945.75</v>
       </c>
       <c r="C194" s="2">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="D194" s="2">
         <v>945.75</v>
@@ -3387,9 +3699,9 @@
         <v>945.75</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>43329.0</v>
+        <v>43329</v>
       </c>
       <c r="B195" s="2">
         <v>937.5</v>
@@ -3404,29 +3716,29 @@
         <v>940.75</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>43332.0</v>
+        <v>43332</v>
       </c>
       <c r="B196" s="2">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="C196" s="2">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="D196" s="2">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="E196" s="2">
-        <v>941.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>43333.0</v>
+        <v>43333</v>
       </c>
       <c r="B197" s="2">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="C197" s="2">
         <v>943.25</v>
@@ -3438,9 +3750,9 @@
         <v>937.75</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>43334.0</v>
+        <v>43334</v>
       </c>
       <c r="B198" s="2">
         <v>927.5</v>
@@ -3455,43 +3767,43 @@
         <v>927.5</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>43335.0</v>
+        <v>43335</v>
       </c>
       <c r="B199" s="2">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="C199" s="2">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="D199" s="2">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="E199" s="2">
-        <v>912.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>43336.0</v>
+        <v>43336</v>
       </c>
       <c r="B200" s="2">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="C200" s="2">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="D200" s="2">
-        <v>914.0</v>
+        <v>914</v>
       </c>
       <c r="E200" s="2">
-        <v>914.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>43339.0</v>
+        <v>43339</v>
       </c>
       <c r="B201" s="2">
         <v>911.5</v>
@@ -3506,26 +3818,26 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>43340.0</v>
+        <v>43340</v>
       </c>
       <c r="B202" s="2">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="C202" s="2">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="D202" s="2">
         <v>903.75</v>
       </c>
       <c r="E202" s="2">
-        <v>904.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>43341.0</v>
+        <v>43341</v>
       </c>
       <c r="B203" s="2">
         <v>911.25</v>
@@ -3540,9 +3852,9 @@
         <v>906.5</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>43342.0</v>
+        <v>43342</v>
       </c>
       <c r="B204" s="2">
         <v>900.75</v>
@@ -3557,15 +3869,15 @@
         <v>900.75</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>43343.0</v>
+        <v>43343</v>
       </c>
       <c r="B205" s="2">
         <v>912.5</v>
       </c>
       <c r="C205" s="2">
-        <v>914.0</v>
+        <v>914</v>
       </c>
       <c r="D205" s="2">
         <v>912.5</v>
@@ -3574,26 +3886,26 @@
         <v>913.25</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>43347.0</v>
+        <v>43347</v>
       </c>
       <c r="B206" s="2">
-        <v>913.0</v>
+        <v>913</v>
       </c>
       <c r="C206" s="2">
-        <v>918.0</v>
+        <v>918</v>
       </c>
       <c r="D206" s="2">
         <v>908.75</v>
       </c>
       <c r="E206" s="2">
-        <v>913.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>43348.0</v>
+        <v>43348</v>
       </c>
       <c r="B207" s="2">
         <v>908.25</v>
@@ -3608,26 +3920,26 @@
         <v>908.25</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>43349.0</v>
+        <v>43349</v>
       </c>
       <c r="B208" s="2">
         <v>908.5</v>
       </c>
       <c r="C208" s="2">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="D208" s="2">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="E208" s="2">
         <v>910.25</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>43350.0</v>
+        <v>43350</v>
       </c>
       <c r="B209" s="2">
         <v>914.5</v>
@@ -3636,15 +3948,15 @@
         <v>916.25</v>
       </c>
       <c r="D209" s="2">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="E209" s="2">
-        <v>915.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>43353.0</v>
+        <v>43353</v>
       </c>
       <c r="B210" s="2">
         <v>915.5</v>
@@ -3659,26 +3971,26 @@
         <v>914.75</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>43354.0</v>
+        <v>43354</v>
       </c>
       <c r="B211" s="2">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="C211" s="2">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="D211" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="E211" s="2">
         <v>901.75</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>43355.0</v>
+        <v>43355</v>
       </c>
       <c r="B212" s="2">
         <v>904.75</v>
@@ -3687,15 +3999,15 @@
         <v>912.25</v>
       </c>
       <c r="D212" s="2">
-        <v>898.0</v>
+        <v>898</v>
       </c>
       <c r="E212" s="2">
-        <v>912.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>43356.0</v>
+        <v>43356</v>
       </c>
       <c r="B213" s="2">
         <v>913.5</v>
@@ -3707,12 +4019,12 @@
         <v>907.75</v>
       </c>
       <c r="E213" s="2">
-        <v>908.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>43357.0</v>
+        <v>43357</v>
       </c>
       <c r="B214" s="2">
         <v>909.25</v>
@@ -3724,29 +4036,29 @@
         <v>906.75</v>
       </c>
       <c r="E214" s="2">
-        <v>908.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>43360.0</v>
+        <v>43360</v>
       </c>
       <c r="B215" s="2">
         <v>909.5</v>
       </c>
       <c r="C215" s="2">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="D215" s="2">
         <v>902.5</v>
       </c>
       <c r="E215" s="2">
-        <v>907.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>43361.0</v>
+        <v>43361</v>
       </c>
       <c r="B216" s="2">
         <v>900.75</v>
@@ -3755,18 +4067,18 @@
         <v>901.25</v>
       </c>
       <c r="D216" s="2">
-        <v>898.0</v>
+        <v>898</v>
       </c>
       <c r="E216" s="2">
         <v>898.75</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>43362.0</v>
+        <v>43362</v>
       </c>
       <c r="B217" s="2">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="C217" s="2">
         <v>911.5</v>
@@ -3778,15 +4090,15 @@
         <v>909.25</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>43363.0</v>
+        <v>43363</v>
       </c>
       <c r="B218" s="2">
-        <v>913.0</v>
+        <v>913</v>
       </c>
       <c r="C218" s="2">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="D218" s="2">
         <v>908.25</v>
@@ -3795,9 +4107,9 @@
         <v>928.25</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>43364.0</v>
+        <v>43364</v>
       </c>
       <c r="B219" s="2">
         <v>929.5</v>
@@ -3812,43 +4124,43 @@
         <v>929.5</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>43367.0</v>
+        <v>43367</v>
       </c>
       <c r="B220" s="2">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="C220" s="2">
         <v>930.25</v>
       </c>
       <c r="D220" s="2">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="E220" s="2">
         <v>928.25</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>43368.0</v>
+        <v>43368</v>
       </c>
       <c r="B221" s="2">
         <v>933.5</v>
       </c>
       <c r="C221" s="2">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="D221" s="2">
         <v>928.25</v>
       </c>
       <c r="E221" s="2">
-        <v>930.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>43369.0</v>
+        <v>43369</v>
       </c>
       <c r="B222" s="2">
         <v>931.5</v>
@@ -3863,26 +4175,26 @@
         <v>931.5</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>43370.0</v>
+        <v>43370</v>
       </c>
       <c r="B223" s="2">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="C223" s="2">
         <v>938.25</v>
       </c>
       <c r="D223" s="2">
-        <v>932.0</v>
+        <v>932</v>
       </c>
       <c r="E223" s="2">
         <v>936.75</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>43371.0</v>
+        <v>43371</v>
       </c>
       <c r="B224" s="2">
         <v>929.75</v>
@@ -3897,29 +4209,29 @@
         <v>929.75</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>43374.0</v>
+        <v>43374</v>
       </c>
       <c r="B225" s="2">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="C225" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="D225" s="2">
         <v>938.25</v>
       </c>
       <c r="E225" s="2">
-        <v>939.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>43375.0</v>
+        <v>43375</v>
       </c>
       <c r="B226" s="2">
-        <v>944.0</v>
+        <v>944</v>
       </c>
       <c r="C226" s="2">
         <v>948.75</v>
@@ -3931,12 +4243,12 @@
         <v>948.75</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>43376.0</v>
+        <v>43376</v>
       </c>
       <c r="B227" s="2">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="C227" s="2">
         <v>950.75</v>
@@ -3948,9 +4260,9 @@
         <v>946.5</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>43377.0</v>
+        <v>43377</v>
       </c>
       <c r="B228" s="2">
         <v>948.5</v>
@@ -3965,9 +4277,9 @@
         <v>944.75</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>43378.0</v>
+        <v>43378</v>
       </c>
       <c r="B229" s="2">
         <v>944.75</v>
@@ -3982,26 +4294,26 @@
         <v>953.75</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>43381.0</v>
+        <v>43381</v>
       </c>
       <c r="B230" s="2">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="C230" s="2">
         <v>954.75</v>
       </c>
       <c r="D230" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="E230" s="2">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>43382.0</v>
+        <v>43382</v>
       </c>
       <c r="B231" s="2">
         <v>946.75</v>
@@ -4016,9 +4328,9 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <v>43383.0</v>
+        <v>43383</v>
       </c>
       <c r="B232" s="2">
         <v>936.75</v>
@@ -4030,12 +4342,12 @@
         <v>934.5</v>
       </c>
       <c r="E232" s="2">
-        <v>937.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>43384.0</v>
+        <v>43384</v>
       </c>
       <c r="B233" s="2">
         <v>934.25</v>
@@ -4050,9 +4362,9 @@
         <v>944.5</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>43385.0</v>
+        <v>43385</v>
       </c>
       <c r="B234" s="2">
         <v>948.5</v>
@@ -4061,35 +4373,35 @@
         <v>951.5</v>
       </c>
       <c r="D234" s="2">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="E234" s="2">
         <v>951.5</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>43388.0</v>
+        <v>43388</v>
       </c>
       <c r="B235" s="2">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="C235" s="2">
         <v>968.75</v>
       </c>
       <c r="D235" s="2">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="E235" s="2">
         <v>968.75</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <v>43389.0</v>
+        <v>43389</v>
       </c>
       <c r="B236" s="2">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="C236" s="2">
         <v>963.75</v>
@@ -4101,9 +4413,9 @@
         <v>963.75</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <v>43390.0</v>
+        <v>43390</v>
       </c>
       <c r="B237" s="2">
         <v>962.75</v>
@@ -4118,9 +4430,9 @@
         <v>962.75</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <v>43391.0</v>
+        <v>43391</v>
       </c>
       <c r="B238" s="2">
         <v>948.75</v>
@@ -4135,12 +4447,12 @@
         <v>943.75</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>43392.0</v>
+        <v>43392</v>
       </c>
       <c r="B239" s="2">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="C239" s="2">
         <v>944.25</v>
@@ -4152,15 +4464,15 @@
         <v>936.75</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>43395.0</v>
+        <v>43395</v>
       </c>
       <c r="B240" s="2">
         <v>941.5</v>
       </c>
       <c r="C240" s="2">
-        <v>942.0</v>
+        <v>942</v>
       </c>
       <c r="D240" s="2">
         <v>937.5</v>
@@ -4169,43 +4481,43 @@
         <v>938.25</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>43396.0</v>
+        <v>43396</v>
       </c>
       <c r="B241" s="2">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="C241" s="2">
         <v>943.25</v>
       </c>
       <c r="D241" s="2">
-        <v>933.0</v>
+        <v>933</v>
       </c>
       <c r="E241" s="2">
         <v>938.25</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>43397.0</v>
+        <v>43397</v>
       </c>
       <c r="B242" s="2">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="C242" s="2">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="D242" s="2">
         <v>934.5</v>
       </c>
       <c r="E242" s="2">
-        <v>935.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>43398.0</v>
+        <v>43398</v>
       </c>
       <c r="B243" s="2">
         <v>929.75</v>
@@ -4220,9 +4532,9 @@
         <v>926.25</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <v>43399.0</v>
+        <v>43399</v>
       </c>
       <c r="B244" s="2">
         <v>932.25</v>
@@ -4237,9 +4549,9 @@
         <v>928.25</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>43402.0</v>
+        <v>43402</v>
       </c>
       <c r="B245" s="2">
         <v>934.5</v>
@@ -4251,12 +4563,12 @@
         <v>922.25</v>
       </c>
       <c r="E245" s="2">
-        <v>924.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <v>43403.0</v>
+        <v>43403</v>
       </c>
       <c r="B246" s="2">
         <v>920.5</v>
@@ -4268,15 +4580,15 @@
         <v>918.25</v>
       </c>
       <c r="E246" s="2">
-        <v>919.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <v>43404.0</v>
+        <v>43404</v>
       </c>
       <c r="B247" s="2">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="C247" s="2">
         <v>924.5</v>
@@ -4288,26 +4600,26 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>43405.0</v>
+        <v>43405</v>
       </c>
       <c r="B248" s="2">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="C248" s="2">
         <v>951.75</v>
       </c>
       <c r="D248" s="2">
-        <v>921.0</v>
+        <v>921</v>
       </c>
       <c r="E248" s="2">
-        <v>947.0</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>43406.0</v>
+        <v>43406</v>
       </c>
       <c r="B249" s="2">
         <v>945.5</v>
@@ -4322,9 +4634,9 @@
         <v>949.25</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>43409.0</v>
+        <v>43409</v>
       </c>
       <c r="B250" s="2">
         <v>952.25</v>
@@ -4339,32 +4651,32 @@
         <v>951.75</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>43410.0</v>
+        <v>43410</v>
       </c>
       <c r="B251" s="2">
-        <v>951.0</v>
+        <v>951</v>
       </c>
       <c r="C251" s="2">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="D251" s="2">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="E251" s="2">
-        <v>951.0</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>43411.0</v>
+        <v>43411</v>
       </c>
       <c r="B252" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="C252" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="D252" s="2">
         <v>945.5</v>
@@ -4373,26 +4685,26 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>43412.0</v>
+        <v>43412</v>
       </c>
       <c r="B253" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="C253" s="2">
         <v>948.75</v>
       </c>
       <c r="D253" s="2">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="E253" s="2">
         <v>948.75</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>43413.0</v>
+        <v>43413</v>
       </c>
       <c r="B254" s="2">
         <v>951.25</v>
@@ -4407,12 +4719,12 @@
         <v>953.75</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>43416.0</v>
+        <v>43416</v>
       </c>
       <c r="B255" s="2">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="C255" s="2">
         <v>952.5</v>
@@ -4424,15 +4736,15 @@
         <v>952.5</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>43417.0</v>
+        <v>43417</v>
       </c>
       <c r="B256" s="2">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="C256" s="2">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="D256" s="2">
         <v>947.25</v>
@@ -4441,12 +4753,12 @@
         <v>948.25</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>43418.0</v>
+        <v>43418</v>
       </c>
       <c r="B257" s="2">
-        <v>951.0</v>
+        <v>951</v>
       </c>
       <c r="C257" s="2">
         <v>956.25</v>
@@ -4458,12 +4770,12 @@
         <v>954.5</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>43419.0</v>
+        <v>43419</v>
       </c>
       <c r="B258" s="2">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="C258" s="2">
         <v>962.5</v>
@@ -4475,26 +4787,26 @@
         <v>954.75</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>43420.0</v>
+        <v>43420</v>
       </c>
       <c r="B259" s="2">
-        <v>957.0</v>
+        <v>957</v>
       </c>
       <c r="C259" s="2">
         <v>958.25</v>
       </c>
       <c r="D259" s="2">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="E259" s="2">
-        <v>955.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>43423.0</v>
+        <v>43423</v>
       </c>
       <c r="B260" s="2">
         <v>946.75</v>
@@ -4509,9 +4821,9 @@
         <v>940.25</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>43424.0</v>
+        <v>43424</v>
       </c>
       <c r="B261" s="2">
         <v>945.75</v>
@@ -4526,32 +4838,32 @@
         <v>947.5</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <v>43425.0</v>
+        <v>43425</v>
       </c>
       <c r="B262" s="2">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="C262" s="2">
         <v>954.75</v>
       </c>
       <c r="D262" s="2">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="E262" s="2">
         <v>949.25</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>43427.0</v>
+        <v>43427</v>
       </c>
       <c r="B263" s="2">
         <v>949.25</v>
       </c>
       <c r="C263" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="D263" s="2">
         <v>947.25</v>
@@ -4560,12 +4872,12 @@
         <v>949.25</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>43430.0</v>
+        <v>43430</v>
       </c>
       <c r="B264" s="2">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="C264" s="2">
         <v>935.75</v>
@@ -4577,26 +4889,26 @@
         <v>935.75</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>43431.0</v>
+        <v>43431</v>
       </c>
       <c r="B265" s="2">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="C265" s="2">
         <v>948.75</v>
       </c>
       <c r="D265" s="2">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="E265" s="2">
         <v>945.75</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>43432.0</v>
+        <v>43432</v>
       </c>
       <c r="B266" s="2">
         <v>957.5</v>
@@ -4605,32 +4917,32 @@
         <v>959.25</v>
       </c>
       <c r="D266" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="E266" s="2">
         <v>955.75</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>43433.0</v>
+        <v>43433</v>
       </c>
       <c r="B267" s="2">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="C267" s="2">
         <v>958.5</v>
       </c>
       <c r="D267" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="E267" s="2">
         <v>951.25</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>43434.0</v>
+        <v>43434</v>
       </c>
       <c r="B268" s="2">
         <v>955.75</v>
@@ -4645,15 +4957,15 @@
         <v>956.25</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>43437.0</v>
+        <v>43437</v>
       </c>
       <c r="B269" s="2">
         <v>970.25</v>
       </c>
       <c r="C269" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D269" s="2">
         <v>966.5</v>
@@ -4662,9 +4974,9 @@
         <v>967.25</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>43438.0</v>
+        <v>43438</v>
       </c>
       <c r="B270" s="2">
         <v>971.75</v>
@@ -4679,29 +4991,29 @@
         <v>971.75</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>43439.0</v>
+        <v>43439</v>
       </c>
       <c r="B271" s="2">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="C271" s="2">
         <v>973.25</v>
       </c>
       <c r="D271" s="2">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="E271" s="2">
         <v>971.75</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>43440.0</v>
+        <v>43440</v>
       </c>
       <c r="B272" s="2">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="C272" s="2">
         <v>971.5</v>
@@ -4713,26 +5025,26 @@
         <v>970.75</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>43441.0</v>
+        <v>43441</v>
       </c>
       <c r="B273" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="C273" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D273" s="2">
         <v>972.75</v>
       </c>
       <c r="E273" s="2">
-        <v>977.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>43444.0</v>
+        <v>43444</v>
       </c>
       <c r="B274" s="2">
         <v>972.5</v>
@@ -4747,9 +5059,9 @@
         <v>973.5</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>43445.0</v>
+        <v>43445</v>
       </c>
       <c r="B275" s="2">
         <v>973.5</v>
@@ -4764,32 +5076,32 @@
         <v>977.5</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>43446.0</v>
+        <v>43446</v>
       </c>
       <c r="B276" s="2">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="C276" s="2">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="D276" s="2">
         <v>976.25</v>
       </c>
       <c r="E276" s="2">
-        <v>981.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>43447.0</v>
+        <v>43447</v>
       </c>
       <c r="B277" s="2">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="C277" s="2">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="D277" s="2">
         <v>970.25</v>
@@ -4798,9 +5110,9 @@
         <v>971.25</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>43448.0</v>
+        <v>43448</v>
       </c>
       <c r="B278" s="2">
         <v>972.5</v>
@@ -4809,32 +5121,32 @@
         <v>972.75</v>
       </c>
       <c r="D278" s="2">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="E278" s="2">
-        <v>967.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>43451.0</v>
+        <v>43451</v>
       </c>
       <c r="B279" s="2">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="C279" s="2">
         <v>972.25</v>
       </c>
       <c r="D279" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="E279" s="2">
         <v>969.5</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>43452.0</v>
+        <v>43452</v>
       </c>
       <c r="B280" s="2">
         <v>974.75</v>
@@ -4849,15 +5161,15 @@
         <v>972.25</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>43453.0</v>
+        <v>43453</v>
       </c>
       <c r="B281" s="2">
         <v>965.75</v>
       </c>
       <c r="C281" s="2">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="D281" s="2">
         <v>964.75</v>
@@ -4866,9 +5178,9 @@
         <v>965.5</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>43454.0</v>
+        <v>43454</v>
       </c>
       <c r="B282" s="2">
         <v>965.5</v>
@@ -4880,12 +5192,12 @@
         <v>958.75</v>
       </c>
       <c r="E282" s="2">
-        <v>959.0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>43455.0</v>
+        <v>43455</v>
       </c>
       <c r="B283" s="2">
         <v>955.25</v>
@@ -4897,12 +5209,12 @@
         <v>951.75</v>
       </c>
       <c r="E283" s="2">
-        <v>954.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>43458.0</v>
+        <v>43458</v>
       </c>
       <c r="B284" s="2">
         <v>954.25</v>
@@ -4914,12 +5226,12 @@
         <v>949.75</v>
       </c>
       <c r="E284" s="2">
-        <v>954.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>43460.0</v>
+        <v>43460</v>
       </c>
       <c r="B285" s="2">
         <v>955.5</v>
@@ -4934,9 +5246,9 @@
         <v>943.25</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>43461.0</v>
+        <v>43461</v>
       </c>
       <c r="B286" s="2">
         <v>948.25</v>
@@ -4948,35 +5260,35 @@
         <v>942.25</v>
       </c>
       <c r="E286" s="2">
-        <v>944.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>43462.0</v>
+        <v>43462</v>
       </c>
       <c r="B287" s="2">
         <v>951.75</v>
       </c>
       <c r="C287" s="2">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="D287" s="2">
         <v>951.75</v>
       </c>
       <c r="E287" s="2">
-        <v>954.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>43465.0</v>
+        <v>43465</v>
       </c>
       <c r="B288" s="2">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="C288" s="2">
-        <v>959.0</v>
+        <v>959</v>
       </c>
       <c r="D288" s="2">
         <v>950.5</v>
@@ -4985,63 +5297,63 @@
         <v>953.75</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>43467.0</v>
+        <v>43467</v>
       </c>
       <c r="B289" s="2">
         <v>959.75</v>
       </c>
       <c r="C289" s="2">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="D289" s="2">
         <v>952.75</v>
       </c>
       <c r="E289" s="2">
-        <v>963.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>43468.0</v>
+        <v>43468</v>
       </c>
       <c r="B290" s="2">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="C290" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="D290" s="2">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="E290" s="2">
-        <v>967.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>43469.0</v>
+        <v>43469</v>
       </c>
       <c r="B291" s="2">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="C291" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D291" s="2">
         <v>965.5</v>
       </c>
       <c r="E291" s="2">
-        <v>975.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>43472.0</v>
+        <v>43472</v>
       </c>
       <c r="B292" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="C292" s="2">
         <v>980.25</v>
@@ -5050,12 +5362,12 @@
         <v>974.25</v>
       </c>
       <c r="E292" s="2">
-        <v>978.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>43473.0</v>
+        <v>43473</v>
       </c>
       <c r="B293" s="2">
         <v>976.5</v>
@@ -5067,12 +5379,12 @@
         <v>970.75</v>
       </c>
       <c r="E293" s="2">
-        <v>976.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>43474.0</v>
+        <v>43474</v>
       </c>
       <c r="B294" s="2">
         <v>978.5</v>
@@ -5087,32 +5399,32 @@
         <v>981.25</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>43475.0</v>
+        <v>43475</v>
       </c>
       <c r="B295" s="2">
         <v>974.25</v>
       </c>
       <c r="C295" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D295" s="2">
         <v>965.5</v>
       </c>
       <c r="E295" s="2">
-        <v>967.0</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>43476.0</v>
+        <v>43476</v>
       </c>
       <c r="B296" s="2">
         <v>970.5</v>
       </c>
       <c r="C296" s="2">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="D296" s="2">
         <v>967.25</v>
@@ -5121,12 +5433,12 @@
         <v>971.25</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>43479.0</v>
+        <v>43479</v>
       </c>
       <c r="B297" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="C297" s="2">
         <v>969.25</v>
@@ -5135,12 +5447,12 @@
         <v>963.75</v>
       </c>
       <c r="E297" s="2">
-        <v>966.0</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>43480.0</v>
+        <v>43480</v>
       </c>
       <c r="B298" s="2">
         <v>961.5</v>
@@ -5152,12 +5464,12 @@
         <v>955.75</v>
       </c>
       <c r="E298" s="2">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>43481.0</v>
+        <v>43481</v>
       </c>
       <c r="B299" s="2">
         <v>959.25</v>
@@ -5169,12 +5481,12 @@
         <v>954.5</v>
       </c>
       <c r="E299" s="2">
-        <v>957.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>43482.0</v>
+        <v>43482</v>
       </c>
       <c r="B300" s="2">
         <v>957.5</v>
@@ -5189,9 +5501,9 @@
         <v>965.25</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>43483.0</v>
+        <v>43483</v>
       </c>
       <c r="B301" s="2">
         <v>969.75</v>
@@ -5206,26 +5518,26 @@
         <v>972.5</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>43487.0</v>
+        <v>43487</v>
       </c>
       <c r="B302" s="2">
         <v>970.75</v>
       </c>
       <c r="C302" s="2">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="D302" s="2">
         <v>958.5</v>
       </c>
       <c r="E302" s="2">
-        <v>968.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>43488.0</v>
+        <v>43488</v>
       </c>
       <c r="B303" s="2">
         <v>967.25</v>
@@ -5240,9 +5552,9 @@
         <v>972.25</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>43489.0</v>
+        <v>43489</v>
       </c>
       <c r="B304" s="2">
         <v>973.75</v>
@@ -5257,12 +5569,12 @@
         <v>972.25</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>43490.0</v>
+        <v>43490</v>
       </c>
       <c r="B305" s="2">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="C305" s="2">
         <v>978.5</v>
@@ -5271,29 +5583,29 @@
         <v>969.25</v>
       </c>
       <c r="E305" s="2">
-        <v>978.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>43493.0</v>
+        <v>43493</v>
       </c>
       <c r="B306" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="C306" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D306" s="2">
         <v>971.25</v>
       </c>
       <c r="E306" s="2">
-        <v>976.0</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>43494.0</v>
+        <v>43494</v>
       </c>
       <c r="B307" s="2">
         <v>971.25</v>
@@ -5302,15 +5614,15 @@
         <v>973.5</v>
       </c>
       <c r="D307" s="2">
-        <v>971.0</v>
+        <v>971</v>
       </c>
       <c r="E307" s="2">
-        <v>972.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>43495.0</v>
+        <v>43495</v>
       </c>
       <c r="B308" s="2">
         <v>972.75</v>
@@ -5325,12 +5637,12 @@
         <v>973.25</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>43496.0</v>
+        <v>43496</v>
       </c>
       <c r="B309" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="C309" s="2">
         <v>978.25</v>
@@ -5342,32 +5654,32 @@
         <v>969.75</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>43497.0</v>
+        <v>43497</v>
       </c>
       <c r="B310" s="2">
         <v>973.75</v>
       </c>
       <c r="C310" s="2">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="D310" s="2">
         <v>970.75</v>
       </c>
       <c r="E310" s="2">
-        <v>971.0</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>43500.0</v>
+        <v>43500</v>
       </c>
       <c r="B311" s="2">
         <v>970.5</v>
       </c>
       <c r="C311" s="2">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="D311" s="2">
         <v>969.75</v>
@@ -5376,9 +5688,9 @@
         <v>971.25</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>43501.0</v>
+        <v>43501</v>
       </c>
       <c r="B312" s="2">
         <v>968.25</v>
@@ -5387,32 +5699,32 @@
         <v>973.5</v>
       </c>
       <c r="D312" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="E312" s="2">
         <v>973.25</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>43502.0</v>
+        <v>43502</v>
       </c>
       <c r="B313" s="2">
         <v>972.5</v>
       </c>
       <c r="C313" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D313" s="2">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="E313" s="2">
         <v>976.5</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>43503.0</v>
+        <v>43503</v>
       </c>
       <c r="B314" s="2">
         <v>975.5</v>
@@ -5427,26 +5739,26 @@
         <v>970.25</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>43504.0</v>
+        <v>43504</v>
       </c>
       <c r="B315" s="2">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="C315" s="2">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="D315" s="2">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="E315" s="2">
-        <v>971.0</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>43507.0</v>
+        <v>43507</v>
       </c>
       <c r="B316" s="2">
         <v>969.5</v>
@@ -5455,15 +5767,15 @@
         <v>973.5</v>
       </c>
       <c r="D316" s="2">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="E316" s="2">
         <v>964.25</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>43508.0</v>
+        <v>43508</v>
       </c>
       <c r="B317" s="2">
         <v>967.5</v>
@@ -5472,15 +5784,15 @@
         <v>977.25</v>
       </c>
       <c r="D317" s="2">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="E317" s="2">
-        <v>975.0</v>
-      </c>
-    </row>
-    <row r="318">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>43509.0</v>
+        <v>43509</v>
       </c>
       <c r="B318" s="2">
         <v>974.25</v>
@@ -5489,15 +5801,15 @@
         <v>976.75</v>
       </c>
       <c r="D318" s="2">
-        <v>971.0</v>
+        <v>971</v>
       </c>
       <c r="E318" s="2">
         <v>973.25</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>43510.0</v>
+        <v>43510</v>
       </c>
       <c r="B319" s="2">
         <v>971.25</v>
@@ -5512,9 +5824,9 @@
         <v>962.25</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>43511.0</v>
+        <v>43511</v>
       </c>
       <c r="B320" s="2">
         <v>963.5</v>
@@ -5523,21 +5835,21 @@
         <v>966.75</v>
       </c>
       <c r="D320" s="2">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="E320" s="2">
         <v>966.25</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>43515.0</v>
+        <v>43515</v>
       </c>
       <c r="B321" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="C321" s="2">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="D321" s="2">
         <v>954.75</v>
@@ -5546,9 +5858,9 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>43516.0</v>
+        <v>43516</v>
       </c>
       <c r="B322" s="2">
         <v>958.5</v>
@@ -5563,9 +5875,9 @@
         <v>963.25</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>43517.0</v>
+        <v>43517</v>
       </c>
       <c r="B323" s="2">
         <v>962.5</v>
@@ -5580,32 +5892,32 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>43518.0</v>
+        <v>43518</v>
       </c>
       <c r="B324" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="C324" s="2">
         <v>970.75</v>
       </c>
       <c r="D324" s="2">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="E324" s="2">
         <v>968.75</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>43521.0</v>
+        <v>43521</v>
       </c>
       <c r="B325" s="2">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="C325" s="2">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="D325" s="2">
         <v>968.5</v>
@@ -5614,43 +5926,43 @@
         <v>969.5</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>43522.0</v>
+        <v>43522</v>
       </c>
       <c r="B326" s="2">
         <v>967.25</v>
       </c>
       <c r="C326" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="D326" s="2">
         <v>959.75</v>
       </c>
       <c r="E326" s="2">
-        <v>964.0</v>
-      </c>
-    </row>
-    <row r="327">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>43523.0</v>
+        <v>43523</v>
       </c>
       <c r="B327" s="2">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="C327" s="2">
         <v>969.25</v>
       </c>
       <c r="D327" s="2">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="E327" s="2">
-        <v>964.0</v>
-      </c>
-    </row>
-    <row r="328">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>43524.0</v>
+        <v>43524</v>
       </c>
       <c r="B328" s="2">
         <v>964.75</v>
@@ -5659,32 +5971,32 @@
         <v>965.25</v>
       </c>
       <c r="D328" s="2">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="E328" s="2">
-        <v>959.0</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>43525.0</v>
+        <v>43525</v>
       </c>
       <c r="B329" s="2">
         <v>961.25</v>
       </c>
       <c r="C329" s="2">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="D329" s="2">
         <v>950.75</v>
       </c>
       <c r="E329" s="2">
-        <v>961.0</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>43528.0</v>
+        <v>43528</v>
       </c>
       <c r="B330" s="2">
         <v>965.25</v>
@@ -5699,49 +6011,49 @@
         <v>966.25</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>43529.0</v>
+        <v>43529</v>
       </c>
       <c r="B331" s="2">
         <v>966.75</v>
       </c>
       <c r="C331" s="2">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="D331" s="2">
         <v>960.75</v>
       </c>
       <c r="E331" s="2">
-        <v>965.0</v>
-      </c>
-    </row>
-    <row r="332">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>43530.0</v>
+        <v>43530</v>
       </c>
       <c r="B332" s="2">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="C332" s="2">
         <v>966.5</v>
       </c>
       <c r="D332" s="2">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="E332" s="2">
         <v>953.75</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>43531.0</v>
+        <v>43531</v>
       </c>
       <c r="B333" s="2">
         <v>952.5</v>
       </c>
       <c r="C333" s="2">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="D333" s="2">
         <v>948.75</v>
@@ -5750,9 +6062,9 @@
         <v>950.75</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>43532.0</v>
+        <v>43532</v>
       </c>
       <c r="B334" s="2">
         <v>948.5</v>
@@ -5761,18 +6073,18 @@
         <v>951.75</v>
       </c>
       <c r="D334" s="2">
-        <v>942.0</v>
+        <v>942</v>
       </c>
       <c r="E334" s="2">
-        <v>946.0</v>
-      </c>
-    </row>
-    <row r="335">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>43535.0</v>
+        <v>43535</v>
       </c>
       <c r="B335" s="2">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="C335" s="2">
         <v>948.25</v>
@@ -5781,97 +6093,97 @@
         <v>940.5</v>
       </c>
       <c r="E335" s="2">
-        <v>942.0</v>
-      </c>
-    </row>
-    <row r="336">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>43536.0</v>
+        <v>43536</v>
       </c>
       <c r="B336" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="C336" s="2">
         <v>950.5</v>
       </c>
       <c r="D336" s="2">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="E336" s="2">
         <v>948.5</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>43537.0</v>
+        <v>43537</v>
       </c>
       <c r="B337" s="2">
         <v>947.25</v>
       </c>
       <c r="C337" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="D337" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="E337" s="2">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="338">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>43538.0</v>
+        <v>43538</v>
       </c>
       <c r="B338" s="2">
-        <v>952.0</v>
+        <v>952</v>
       </c>
       <c r="C338" s="2">
         <v>956.25</v>
       </c>
       <c r="D338" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="E338" s="2">
         <v>948.75</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>43539.0</v>
+        <v>43539</v>
       </c>
       <c r="B339" s="2">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="C339" s="2">
         <v>959.25</v>
       </c>
       <c r="D339" s="2">
-        <v>948.0</v>
+        <v>948</v>
       </c>
       <c r="E339" s="2">
         <v>956.5</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>43542.0</v>
+        <v>43542</v>
       </c>
       <c r="B340" s="2">
         <v>956.5</v>
       </c>
       <c r="C340" s="2">
-        <v>958.0</v>
+        <v>958</v>
       </c>
       <c r="D340" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="E340" s="2">
         <v>953.25</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>43543.0</v>
+        <v>43543</v>
       </c>
       <c r="B341" s="2">
         <v>952.5</v>
@@ -5886,26 +6198,26 @@
         <v>953.75</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>43544.0</v>
+        <v>43544</v>
       </c>
       <c r="B342" s="2">
         <v>952.5</v>
       </c>
       <c r="C342" s="2">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="D342" s="2">
         <v>950.25</v>
       </c>
       <c r="E342" s="2">
-        <v>955.0</v>
-      </c>
-    </row>
-    <row r="343">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>43545.0</v>
+        <v>43545</v>
       </c>
       <c r="B343" s="2">
         <v>954.5</v>
@@ -5914,15 +6226,15 @@
         <v>960.75</v>
       </c>
       <c r="D343" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="E343" s="2">
         <v>958.75</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>43546.0</v>
+        <v>43546</v>
       </c>
       <c r="B344" s="2">
         <v>957.75</v>
@@ -5931,21 +6243,21 @@
         <v>959.75</v>
       </c>
       <c r="D344" s="2">
-        <v>949.0</v>
+        <v>949</v>
       </c>
       <c r="E344" s="2">
         <v>949.75</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>43549.0</v>
+        <v>43549</v>
       </c>
       <c r="B345" s="2">
         <v>949.75</v>
       </c>
       <c r="C345" s="2">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="D345" s="2">
         <v>947.75</v>
@@ -5954,15 +6266,15 @@
         <v>952.5</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>43550.0</v>
+        <v>43550</v>
       </c>
       <c r="B346" s="2">
         <v>951.75</v>
       </c>
       <c r="C346" s="2">
-        <v>953.0</v>
+        <v>953</v>
       </c>
       <c r="D346" s="2">
         <v>946.5</v>
@@ -5971,9 +6283,9 @@
         <v>947.5</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>43551.0</v>
+        <v>43551</v>
       </c>
       <c r="B347" s="2">
         <v>946.5</v>
@@ -5982,18 +6294,18 @@
         <v>947.25</v>
       </c>
       <c r="D347" s="2">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="E347" s="2">
         <v>937.25</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>43552.0</v>
+        <v>43552</v>
       </c>
       <c r="B348" s="2">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="C348" s="2">
         <v>940.5</v>
@@ -6002,12 +6314,12 @@
         <v>935.75</v>
       </c>
       <c r="E348" s="2">
-        <v>937.0</v>
-      </c>
-    </row>
-    <row r="349">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>43553.0</v>
+        <v>43553</v>
       </c>
       <c r="B349" s="2">
         <v>936.25</v>
@@ -6022,12 +6334,12 @@
         <v>933.5</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>43556.0</v>
+        <v>43556</v>
       </c>
       <c r="B350" s="2">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="C350" s="2">
         <v>946.25</v>
@@ -6036,12 +6348,12 @@
         <v>932.75</v>
       </c>
       <c r="E350" s="2">
-        <v>943.0</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>43557.0</v>
+        <v>43557</v>
       </c>
       <c r="B351" s="2">
         <v>944.25</v>
@@ -6056,12 +6368,12 @@
         <v>948.25</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>43558.0</v>
+        <v>43558</v>
       </c>
       <c r="B352" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="C352" s="2">
         <v>951.25</v>
@@ -6073,9 +6385,9 @@
         <v>947.75</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>43559.0</v>
+        <v>43559</v>
       </c>
       <c r="B353" s="2">
         <v>946.75</v>
@@ -6090,9 +6402,9 @@
         <v>954.75</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>43560.0</v>
+        <v>43560</v>
       </c>
       <c r="B354" s="2">
         <v>952.75</v>
@@ -6104,12 +6416,12 @@
         <v>946.75</v>
       </c>
       <c r="E354" s="2">
-        <v>949.0</v>
-      </c>
-    </row>
-    <row r="355">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>43563.0</v>
+        <v>43563</v>
       </c>
       <c r="B355" s="2">
         <v>948.75</v>
@@ -6124,9 +6436,9 @@
         <v>948.25</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>43564.0</v>
+        <v>43564</v>
       </c>
       <c r="B356" s="2">
         <v>947.25</v>
@@ -6135,18 +6447,18 @@
         <v>950.5</v>
       </c>
       <c r="D356" s="2">
-        <v>944.0</v>
+        <v>944</v>
       </c>
       <c r="E356" s="2">
-        <v>948.0</v>
-      </c>
-    </row>
-    <row r="357">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>43565.0</v>
+        <v>43565</v>
       </c>
       <c r="B357" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="C357" s="2">
         <v>952.25</v>
@@ -6158,9 +6470,9 @@
         <v>950.5</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>43566.0</v>
+        <v>43566</v>
       </c>
       <c r="B358" s="2">
         <v>949.25</v>
@@ -6175,15 +6487,15 @@
         <v>944.5</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>43567.0</v>
+        <v>43567</v>
       </c>
       <c r="B359" s="2">
         <v>943.5</v>
       </c>
       <c r="C359" s="2">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="D359" s="2">
         <v>942.75</v>
@@ -6192,15 +6504,15 @@
         <v>943.75</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>43570.0</v>
+        <v>43570</v>
       </c>
       <c r="B360" s="2">
         <v>943.75</v>
       </c>
       <c r="C360" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="D360" s="2">
         <v>943.5</v>
@@ -6209,9 +6521,9 @@
         <v>946.5</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>43571.0</v>
+        <v>43571</v>
       </c>
       <c r="B361" s="2">
         <v>945.75</v>
@@ -6226,12 +6538,12 @@
         <v>937.5</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>43572.0</v>
+        <v>43572</v>
       </c>
       <c r="B362" s="2">
-        <v>939.0</v>
+        <v>939</v>
       </c>
       <c r="C362" s="2">
         <v>939.75</v>
@@ -6243,12 +6555,12 @@
         <v>929.5</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>43573.0</v>
+        <v>43573</v>
       </c>
       <c r="B363" s="2">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="C363" s="2">
         <v>932.25</v>
@@ -6260,9 +6572,9 @@
         <v>930.75</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>43577.0</v>
+        <v>43577</v>
       </c>
       <c r="B364" s="2">
         <v>930.5</v>
@@ -6271,35 +6583,35 @@
         <v>932.75</v>
       </c>
       <c r="D364" s="2">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="E364" s="2">
         <v>927.5</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>43578.0</v>
+        <v>43578</v>
       </c>
       <c r="B365" s="2">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="C365" s="2">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="D365" s="2">
-        <v>914.0</v>
+        <v>914</v>
       </c>
       <c r="E365" s="2">
-        <v>915.0</v>
-      </c>
-    </row>
-    <row r="366">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>43579.0</v>
+        <v>43579</v>
       </c>
       <c r="B366" s="2">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="C366" s="2">
         <v>917.25</v>
@@ -6311,9 +6623,9 @@
         <v>907.75</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>43580.0</v>
+        <v>43580</v>
       </c>
       <c r="B367" s="2">
         <v>908.75</v>
@@ -6325,12 +6637,12 @@
         <v>906.5</v>
       </c>
       <c r="E367" s="2">
-        <v>912.0</v>
-      </c>
-    </row>
-    <row r="368">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>43581.0</v>
+        <v>43581</v>
       </c>
       <c r="B368" s="2">
         <v>911.5</v>
@@ -6345,9 +6657,9 @@
         <v>906.25</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>43584.0</v>
+        <v>43584</v>
       </c>
       <c r="B369" s="2">
         <v>908.25</v>
@@ -6362,9 +6674,9 @@
         <v>899.25</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>43585.0</v>
+        <v>43585</v>
       </c>
       <c r="B370" s="2">
         <v>899.75</v>
@@ -6379,9 +6691,9 @@
         <v>893.75</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>43586.0</v>
+        <v>43586</v>
       </c>
       <c r="B371" s="2">
         <v>893.75</v>
@@ -6390,15 +6702,15 @@
         <v>897.25</v>
       </c>
       <c r="D371" s="2">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="E371" s="2">
         <v>892.25</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>43587.0</v>
+        <v>43587</v>
       </c>
       <c r="B372" s="2">
         <v>891.75</v>
@@ -6413,9 +6725,9 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>43588.0</v>
+        <v>43588</v>
       </c>
       <c r="B373" s="2">
         <v>884.5</v>
@@ -6430,26 +6742,26 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>43591.0</v>
+        <v>43591</v>
       </c>
       <c r="B374" s="2">
-        <v>873.0</v>
+        <v>873</v>
       </c>
       <c r="C374" s="2">
-        <v>877.0</v>
+        <v>877</v>
       </c>
       <c r="D374" s="2">
-        <v>862.0</v>
+        <v>862</v>
       </c>
       <c r="E374" s="2">
         <v>874.5</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>43592.0</v>
+        <v>43592</v>
       </c>
       <c r="B375" s="2">
         <v>873.25</v>
@@ -6464,15 +6776,15 @@
         <v>873.25</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>43593.0</v>
+        <v>43593</v>
       </c>
       <c r="B376" s="2">
         <v>873.5</v>
       </c>
       <c r="C376" s="2">
-        <v>877.0</v>
+        <v>877</v>
       </c>
       <c r="D376" s="2">
         <v>869.25</v>
@@ -6481,9 +6793,9 @@
         <v>872.25</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>43594.0</v>
+        <v>43594</v>
       </c>
       <c r="B377" s="2">
         <v>871.75</v>
@@ -6498,15 +6810,15 @@
         <v>859.25</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>43595.0</v>
+        <v>43595</v>
       </c>
       <c r="B378" s="2">
         <v>859.5</v>
       </c>
       <c r="C378" s="2">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="D378" s="2">
         <v>854.75</v>
@@ -6515,15 +6827,15 @@
         <v>857.75</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>43598.0</v>
+        <v>43598</v>
       </c>
       <c r="B379" s="2">
         <v>855.5</v>
       </c>
       <c r="C379" s="2">
-        <v>856.0</v>
+        <v>856</v>
       </c>
       <c r="D379" s="2">
         <v>841.5</v>
@@ -6532,15 +6844,15 @@
         <v>852.75</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>43599.0</v>
+        <v>43599</v>
       </c>
       <c r="B380" s="2">
         <v>855.75</v>
       </c>
       <c r="C380" s="2">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="D380" s="2">
         <v>855.75</v>
@@ -6549,32 +6861,32 @@
         <v>879.25</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>43600.0</v>
+        <v>43600</v>
       </c>
       <c r="B381" s="2">
-        <v>878.0</v>
+        <v>878</v>
       </c>
       <c r="C381" s="2">
         <v>892.25</v>
       </c>
       <c r="D381" s="2">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="E381" s="2">
         <v>881.5</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
-        <v>43601.0</v>
+        <v>43601</v>
       </c>
       <c r="B382" s="2">
         <v>880.75</v>
       </c>
       <c r="C382" s="2">
-        <v>891.0</v>
+        <v>891</v>
       </c>
       <c r="D382" s="2">
         <v>878.75</v>
@@ -6583,9 +6895,9 @@
         <v>885.75</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
-        <v>43602.0</v>
+        <v>43602</v>
       </c>
       <c r="B383" s="2">
         <v>886.25</v>
@@ -6597,12 +6909,12 @@
         <v>866.5</v>
       </c>
       <c r="E383" s="2">
-        <v>868.0</v>
-      </c>
-    </row>
-    <row r="384">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
-        <v>43605.0</v>
+        <v>43605</v>
       </c>
       <c r="B384" s="2">
         <v>872.75</v>
@@ -6611,21 +6923,21 @@
         <v>883.5</v>
       </c>
       <c r="D384" s="2">
-        <v>871.0</v>
+        <v>871</v>
       </c>
       <c r="E384" s="2">
         <v>878.25</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
-        <v>43606.0</v>
+        <v>43606</v>
       </c>
       <c r="B385" s="2">
-        <v>888.0</v>
+        <v>888</v>
       </c>
       <c r="C385" s="2">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="D385" s="2">
         <v>865.5</v>
@@ -6634,32 +6946,32 @@
         <v>868.5</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
-        <v>43607.0</v>
+        <v>43607</v>
       </c>
       <c r="B386" s="2">
-        <v>866.0</v>
+        <v>866</v>
       </c>
       <c r="C386" s="2">
         <v>881.5</v>
       </c>
       <c r="D386" s="2">
-        <v>866.0</v>
+        <v>866</v>
       </c>
       <c r="E386" s="2">
         <v>875.25</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
-        <v>43608.0</v>
+        <v>43608</v>
       </c>
       <c r="B387" s="2">
         <v>875.75</v>
       </c>
       <c r="C387" s="2">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="D387" s="2">
         <v>865.75</v>
@@ -6668,9 +6980,9 @@
         <v>869.5</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
-        <v>43609.0</v>
+        <v>43609</v>
       </c>
       <c r="B388" s="2">
         <v>869.75</v>
@@ -6679,15 +6991,15 @@
         <v>878.75</v>
       </c>
       <c r="D388" s="2">
-        <v>868.0</v>
+        <v>868</v>
       </c>
       <c r="E388" s="2">
-        <v>876.0</v>
-      </c>
-    </row>
-    <row r="389">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
-        <v>43613.0</v>
+        <v>43613</v>
       </c>
       <c r="B389" s="2">
         <v>885.25</v>
@@ -6696,15 +7008,15 @@
         <v>902.75</v>
       </c>
       <c r="D389" s="2">
-        <v>884.0</v>
+        <v>884</v>
       </c>
       <c r="E389" s="2">
         <v>901.5</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
-        <v>43614.0</v>
+        <v>43614</v>
       </c>
       <c r="B390" s="2">
         <v>909.5</v>
@@ -6719,9 +7031,9 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
-        <v>43615.0</v>
+        <v>43615</v>
       </c>
       <c r="B391" s="2">
         <v>914.25</v>
@@ -6730,18 +7042,18 @@
         <v>931.75</v>
       </c>
       <c r="D391" s="2">
-        <v>908.0</v>
+        <v>908</v>
       </c>
       <c r="E391" s="2">
         <v>931.75</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
-        <v>43616.0</v>
+        <v>43616</v>
       </c>
       <c r="B392" s="2">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="C392" s="2">
         <v>933.5</v>
@@ -6753,12 +7065,12 @@
         <v>921.75</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
-        <v>43619.0</v>
+        <v>43619</v>
       </c>
       <c r="B393" s="2">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="C393" s="2">
         <v>930.25</v>
@@ -6767,12 +7079,12 @@
         <v>918.25</v>
       </c>
       <c r="E393" s="2">
-        <v>924.0</v>
-      </c>
-    </row>
-    <row r="394">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
-        <v>43620.0</v>
+        <v>43620</v>
       </c>
       <c r="B394" s="2">
         <v>934.25</v>
@@ -6787,15 +7099,15 @@
         <v>927.75</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
-        <v>43621.0</v>
+        <v>43621</v>
       </c>
       <c r="B395" s="2">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="C395" s="2">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="D395" s="2">
         <v>916.25</v>
@@ -6804,26 +7116,26 @@
         <v>917.75</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
-        <v>43622.0</v>
+        <v>43622</v>
       </c>
       <c r="B396" s="2">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="C396" s="2">
         <v>919.25</v>
       </c>
       <c r="D396" s="2">
-        <v>906.0</v>
+        <v>906</v>
       </c>
       <c r="E396" s="2">
         <v>916.25</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
-        <v>43623.0</v>
+        <v>43623</v>
       </c>
       <c r="B397" s="2">
         <v>916.25</v>
@@ -6838,9 +7150,9 @@
         <v>905.5</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
-        <v>43626.0</v>
+        <v>43626</v>
       </c>
       <c r="B398" s="2">
         <v>902.75</v>
@@ -6852,12 +7164,12 @@
         <v>898.25</v>
       </c>
       <c r="E398" s="2">
-        <v>909.0</v>
-      </c>
-    </row>
-    <row r="399">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
-        <v>43627.0</v>
+        <v>43627</v>
       </c>
       <c r="B399" s="2">
         <v>905.25</v>
@@ -6866,21 +7178,21 @@
         <v>913.75</v>
       </c>
       <c r="D399" s="2">
-        <v>902.0</v>
+        <v>902</v>
       </c>
       <c r="E399" s="2">
         <v>910.5</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
-        <v>43628.0</v>
+        <v>43628</v>
       </c>
       <c r="B400" s="2">
         <v>908.75</v>
       </c>
       <c r="C400" s="2">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="D400" s="2">
         <v>904.25</v>
@@ -6889,9 +7201,9 @@
         <v>926.25</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
-        <v>43629.0</v>
+        <v>43629</v>
       </c>
       <c r="B401" s="2">
         <v>926.25</v>
@@ -6903,35 +7215,35 @@
         <v>925.5</v>
       </c>
       <c r="E401" s="2">
-        <v>934.0</v>
-      </c>
-    </row>
-    <row r="402">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
-        <v>43630.0</v>
+        <v>43630</v>
       </c>
       <c r="B402" s="2">
-        <v>933.0</v>
+        <v>933</v>
       </c>
       <c r="C402" s="2">
-        <v>942.0</v>
+        <v>942</v>
       </c>
       <c r="D402" s="2">
         <v>931.25</v>
       </c>
       <c r="E402" s="2">
-        <v>941.0</v>
-      </c>
-    </row>
-    <row r="403">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
-        <v>43633.0</v>
+        <v>43633</v>
       </c>
       <c r="B403" s="2">
         <v>944.5</v>
       </c>
       <c r="C403" s="2">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="D403" s="2">
         <v>944.25</v>
@@ -6940,15 +7252,15 @@
         <v>954.5</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
-        <v>43634.0</v>
+        <v>43634</v>
       </c>
       <c r="B404" s="2">
         <v>959.75</v>
       </c>
       <c r="C404" s="2">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="D404" s="2">
         <v>946.75</v>
@@ -6957,26 +7269,26 @@
         <v>955.75</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
-        <v>43635.0</v>
+        <v>43635</v>
       </c>
       <c r="B405" s="2">
-        <v>954.0</v>
+        <v>954</v>
       </c>
       <c r="C405" s="2">
         <v>956.25</v>
       </c>
       <c r="D405" s="2">
-        <v>946.0</v>
+        <v>946</v>
       </c>
       <c r="E405" s="2">
         <v>947.5</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
-        <v>43636.0</v>
+        <v>43636</v>
       </c>
       <c r="B406" s="2">
         <v>944.25</v>
@@ -6985,18 +7297,18 @@
         <v>961.25</v>
       </c>
       <c r="D406" s="2">
-        <v>942.0</v>
+        <v>942</v>
       </c>
       <c r="E406" s="2">
         <v>960.25</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
-        <v>43637.0</v>
+        <v>43637</v>
       </c>
       <c r="B407" s="2">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="C407" s="2">
         <v>961.5</v>
@@ -7005,12 +7317,12 @@
         <v>946.5</v>
       </c>
       <c r="E407" s="2">
-        <v>947.0</v>
-      </c>
-    </row>
-    <row r="408">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
-        <v>43640.0</v>
+        <v>43640</v>
       </c>
       <c r="B408" s="2">
         <v>945.5</v>
@@ -7022,15 +7334,15 @@
         <v>944.25</v>
       </c>
       <c r="E408" s="2">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="409">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
-        <v>43641.0</v>
+        <v>43641</v>
       </c>
       <c r="B409" s="2">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="C409" s="2">
         <v>958.25</v>
@@ -7042,15 +7354,15 @@
         <v>944.25</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
-        <v>43642.0</v>
+        <v>43642</v>
       </c>
       <c r="B410" s="2">
-        <v>942.0</v>
+        <v>942</v>
       </c>
       <c r="C410" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="D410" s="2">
         <v>935.25</v>
@@ -7059,9 +7371,9 @@
         <v>936.75</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
-        <v>43643.0</v>
+        <v>43643</v>
       </c>
       <c r="B411" s="2">
         <v>934.25</v>
@@ -7076,9 +7388,9 @@
         <v>931.75</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
-        <v>43644.0</v>
+        <v>43644</v>
       </c>
       <c r="B412" s="2">
         <v>931.75</v>
@@ -7087,21 +7399,21 @@
         <v>948.5</v>
       </c>
       <c r="D412" s="2">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="E412" s="2">
         <v>941.5</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
-        <v>43647.0</v>
+        <v>43647</v>
       </c>
       <c r="B413" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="C413" s="2">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="D413" s="2">
         <v>927.25</v>
@@ -7110,15 +7422,15 @@
         <v>928.75</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
-        <v>43648.0</v>
+        <v>43648</v>
       </c>
       <c r="B414" s="2">
         <v>929.25</v>
       </c>
       <c r="C414" s="2">
-        <v>933.0</v>
+        <v>933</v>
       </c>
       <c r="D414" s="2">
         <v>918.75</v>
@@ -7127,9 +7439,9 @@
         <v>919.5</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
-        <v>43649.0</v>
+        <v>43649</v>
       </c>
       <c r="B415" s="2">
         <v>919.75</v>
@@ -7138,21 +7450,21 @@
         <v>929.25</v>
       </c>
       <c r="D415" s="2">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="E415" s="2">
-        <v>929.0</v>
-      </c>
-    </row>
-    <row r="416">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
-        <v>43651.0</v>
+        <v>43651</v>
       </c>
       <c r="B416" s="2">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="C416" s="2">
-        <v>928.0</v>
+        <v>928</v>
       </c>
       <c r="D416" s="2">
         <v>913.75</v>
@@ -7161,12 +7473,12 @@
         <v>915.25</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
-        <v>43654.0</v>
+        <v>43654</v>
       </c>
       <c r="B417" s="2">
-        <v>922.0</v>
+        <v>922</v>
       </c>
       <c r="C417" s="2">
         <v>922.5</v>
@@ -7178,15 +7490,15 @@
         <v>918.75</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
-        <v>43655.0</v>
+        <v>43655</v>
       </c>
       <c r="B418" s="2">
         <v>918.75</v>
       </c>
       <c r="C418" s="2">
-        <v>926.0</v>
+        <v>926</v>
       </c>
       <c r="D418" s="2">
         <v>911.75</v>
@@ -7195,15 +7507,15 @@
         <v>925.75</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
-        <v>43656.0</v>
+        <v>43656</v>
       </c>
       <c r="B419" s="2">
         <v>926.25</v>
       </c>
       <c r="C419" s="2">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="D419" s="2">
         <v>921.5</v>
@@ -7212,26 +7524,26 @@
         <v>934.25</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
-        <v>43657.0</v>
+        <v>43657</v>
       </c>
       <c r="B420" s="2">
         <v>933.5</v>
       </c>
       <c r="C420" s="2">
-        <v>939.0</v>
+        <v>939</v>
       </c>
       <c r="D420" s="2">
-        <v>926.0</v>
+        <v>926</v>
       </c>
       <c r="E420" s="2">
         <v>938.5</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
-        <v>43658.0</v>
+        <v>43658</v>
       </c>
       <c r="B421" s="2">
         <v>938.5</v>
@@ -7243,12 +7555,12 @@
         <v>934.25</v>
       </c>
       <c r="E421" s="2">
-        <v>952.0</v>
-      </c>
-    </row>
-    <row r="422">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
-        <v>43661.0</v>
+        <v>43661</v>
       </c>
       <c r="B422" s="2">
         <v>953.75</v>
@@ -7260,15 +7572,15 @@
         <v>939.75</v>
       </c>
       <c r="E422" s="2">
-        <v>941.0</v>
-      </c>
-    </row>
-    <row r="423">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
-        <v>43662.0</v>
+        <v>43662</v>
       </c>
       <c r="B423" s="2">
-        <v>938.0</v>
+        <v>938</v>
       </c>
       <c r="C423" s="2">
         <v>938.25</v>
@@ -7280,9 +7592,9 @@
         <v>927.5</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
-        <v>43663.0</v>
+        <v>43663</v>
       </c>
       <c r="B424" s="2">
         <v>927.25</v>
@@ -7297,15 +7609,15 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
-        <v>43664.0</v>
+        <v>43664</v>
       </c>
       <c r="B425" s="2">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="C425" s="2">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="D425" s="2">
         <v>915.5</v>
@@ -7314,32 +7626,32 @@
         <v>921.25</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
-        <v>43665.0</v>
+        <v>43665</v>
       </c>
       <c r="B426" s="2">
         <v>922.5</v>
       </c>
       <c r="C426" s="2">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="D426" s="2">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="E426" s="2">
         <v>940.5</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
-        <v>43668.0</v>
+        <v>43668</v>
       </c>
       <c r="B427" s="2">
-        <v>941.0</v>
+        <v>941</v>
       </c>
       <c r="C427" s="2">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="D427" s="2">
         <v>927.25</v>
@@ -7348,9 +7660,9 @@
         <v>928.25</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
-        <v>43669.0</v>
+        <v>43669</v>
       </c>
       <c r="B428" s="2">
         <v>930.75</v>
@@ -7365,29 +7677,29 @@
         <v>926.25</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
-        <v>43670.0</v>
+        <v>43670</v>
       </c>
       <c r="B429" s="2">
         <v>926.5</v>
       </c>
       <c r="C429" s="2">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="D429" s="2">
         <v>924.5</v>
       </c>
       <c r="E429" s="2">
-        <v>931.0</v>
-      </c>
-    </row>
-    <row r="430">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
-        <v>43671.0</v>
+        <v>43671</v>
       </c>
       <c r="B430" s="2">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="C430" s="2">
         <v>935.75</v>
@@ -7399,9 +7711,9 @@
         <v>924.5</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
-        <v>43672.0</v>
+        <v>43672</v>
       </c>
       <c r="B431" s="2">
         <v>925.75</v>
@@ -7416,26 +7728,26 @@
         <v>925.75</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
-        <v>43675.0</v>
+        <v>43675</v>
       </c>
       <c r="B432" s="2">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="C432" s="2">
         <v>933.25</v>
       </c>
       <c r="D432" s="2">
-        <v>924.0</v>
+        <v>924</v>
       </c>
       <c r="E432" s="2">
         <v>929.25</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
-        <v>43676.0</v>
+        <v>43676</v>
       </c>
       <c r="B433" s="2">
         <v>928.25</v>
@@ -7450,9 +7762,9 @@
         <v>922.25</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
-        <v>43677.0</v>
+        <v>43677</v>
       </c>
       <c r="B434" s="2">
         <v>920.75</v>
@@ -7461,15 +7773,15 @@
         <v>925.25</v>
       </c>
       <c r="D434" s="2">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="E434" s="2">
         <v>908.5</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
-        <v>43678.0</v>
+        <v>43678</v>
       </c>
       <c r="B435" s="2">
         <v>907.25</v>
@@ -7484,9 +7796,9 @@
         <v>891.75</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
-        <v>43679.0</v>
+        <v>43679</v>
       </c>
       <c r="B436" s="2">
         <v>893.25</v>
@@ -7501,9 +7813,9 @@
         <v>894.25</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
-        <v>43682.0</v>
+        <v>43682</v>
       </c>
       <c r="B437" s="2">
         <v>896.5</v>
@@ -7518,9 +7830,9 @@
         <v>893.75</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
-        <v>43683.0</v>
+        <v>43683</v>
       </c>
       <c r="B438" s="2">
         <v>891.25</v>
@@ -7529,15 +7841,15 @@
         <v>897.25</v>
       </c>
       <c r="D438" s="2">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="E438" s="2">
         <v>890.75</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
-        <v>43684.0</v>
+        <v>43684</v>
       </c>
       <c r="B439" s="2">
         <v>890.75</v>
@@ -7552,29 +7864,29 @@
         <v>891.75</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
-        <v>43685.0</v>
+        <v>43685</v>
       </c>
       <c r="B440" s="2">
         <v>892.25</v>
       </c>
       <c r="C440" s="2">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D440" s="2">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="E440" s="2">
         <v>907.5</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
-        <v>43686.0</v>
+        <v>43686</v>
       </c>
       <c r="B441" s="2">
-        <v>908.0</v>
+        <v>908</v>
       </c>
       <c r="C441" s="2">
         <v>918.5</v>
@@ -7583,12 +7895,12 @@
         <v>906.5</v>
       </c>
       <c r="E441" s="2">
-        <v>916.0</v>
-      </c>
-    </row>
-    <row r="442">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
-        <v>43689.0</v>
+        <v>43689</v>
       </c>
       <c r="B442" s="2">
         <v>914.5</v>
@@ -7603,12 +7915,12 @@
         <v>905.25</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
-        <v>43690.0</v>
+        <v>43690</v>
       </c>
       <c r="B443" s="2">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="C443" s="2">
         <v>922.25</v>
@@ -7617,15 +7929,15 @@
         <v>901.75</v>
       </c>
       <c r="E443" s="2">
-        <v>914.0</v>
-      </c>
-    </row>
-    <row r="444">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
-        <v>43691.0</v>
+        <v>43691</v>
       </c>
       <c r="B444" s="2">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="C444" s="2">
         <v>918.25</v>
@@ -7637,9 +7949,9 @@
         <v>903.75</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
-        <v>43692.0</v>
+        <v>43692</v>
       </c>
       <c r="B445" s="2">
         <v>904.75</v>
@@ -7651,35 +7963,35 @@
         <v>896.5</v>
       </c>
       <c r="E445" s="2">
-        <v>897.0</v>
-      </c>
-    </row>
-    <row r="446">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
-        <v>43693.0</v>
+        <v>43693</v>
       </c>
       <c r="B446" s="2">
-        <v>897.0</v>
+        <v>897</v>
       </c>
       <c r="C446" s="2">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="D446" s="2">
-        <v>897.0</v>
+        <v>897</v>
       </c>
       <c r="E446" s="2">
         <v>906.5</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
-        <v>43696.0</v>
+        <v>43696</v>
       </c>
       <c r="B447" s="2">
         <v>901.25</v>
       </c>
       <c r="C447" s="2">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="D447" s="2">
         <v>891.75</v>
@@ -7688,9 +8000,9 @@
         <v>893.75</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
-        <v>43697.0</v>
+        <v>43697</v>
       </c>
       <c r="B448" s="2">
         <v>895.75</v>
@@ -7699,15 +8011,15 @@
         <v>901.5</v>
       </c>
       <c r="D448" s="2">
-        <v>893.0</v>
+        <v>893</v>
       </c>
       <c r="E448" s="2">
         <v>895.25</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
-        <v>43698.0</v>
+        <v>43698</v>
       </c>
       <c r="B449" s="2">
         <v>895.25</v>
@@ -7716,18 +8028,18 @@
         <v>903.25</v>
       </c>
       <c r="D449" s="2">
-        <v>894.0</v>
+        <v>894</v>
       </c>
       <c r="E449" s="2">
         <v>900.25</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
-        <v>43699.0</v>
+        <v>43699</v>
       </c>
       <c r="B450" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="C450" s="2">
         <v>908.75</v>
@@ -7739,9 +8051,9 @@
         <v>895.5</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
-        <v>43700.0</v>
+        <v>43700</v>
       </c>
       <c r="B451" s="2">
         <v>895.5</v>
@@ -7756,9 +8068,9 @@
         <v>885.25</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
-        <v>43703.0</v>
+        <v>43703</v>
       </c>
       <c r="B452" s="2">
         <v>883.5</v>
@@ -7773,15 +8085,15 @@
         <v>893.5</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
-        <v>43704.0</v>
+        <v>43704</v>
       </c>
       <c r="B453" s="2">
         <v>891.5</v>
       </c>
       <c r="C453" s="2">
-        <v>892.0</v>
+        <v>892</v>
       </c>
       <c r="D453" s="2">
         <v>883.25</v>
@@ -7790,26 +8102,26 @@
         <v>886.25</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
-        <v>43705.0</v>
+        <v>43705</v>
       </c>
       <c r="B454" s="2">
         <v>886.25</v>
       </c>
       <c r="C454" s="2">
-        <v>894.0</v>
+        <v>894</v>
       </c>
       <c r="D454" s="2">
         <v>879.5</v>
       </c>
       <c r="E454" s="2">
-        <v>892.0</v>
-      </c>
-    </row>
-    <row r="455">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
-        <v>43706.0</v>
+        <v>43706</v>
       </c>
       <c r="B455" s="2">
         <v>891.5</v>
@@ -7821,12 +8133,12 @@
         <v>891.5</v>
       </c>
       <c r="E455" s="2">
-        <v>894.0</v>
-      </c>
-    </row>
-    <row r="456">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
-        <v>43707.0</v>
+        <v>43707</v>
       </c>
       <c r="B456" s="2">
         <v>893.5</v>
@@ -7841,13 +8153,13 @@
         <v>894.25</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>